--- a/результаты.xlsx
+++ b/результаты.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="наличие голоса" sheetId="5" r:id="rId2"/>
-    <sheet name="за" sheetId="2" r:id="rId3"/>
-    <sheet name="против" sheetId="3" r:id="rId4"/>
-    <sheet name="воздержался" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId2"/>
+    <sheet name="наличие голоса" sheetId="5" r:id="rId3"/>
+    <sheet name="за" sheetId="2" r:id="rId4"/>
+    <sheet name="против" sheetId="3" r:id="rId5"/>
+    <sheet name="воздержался" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="82">
   <si>
     <t>Музалевская Вера Геннадьевна</t>
   </si>
@@ -76,9 +77,6 @@
   </si>
   <si>
     <t>Кирова Елена Александровна</t>
-  </si>
-  <si>
-    <t>Киров Владимир Станиславович</t>
   </si>
   <si>
     <t>Демян Матвей Иванович</t>
@@ -266,6 +264,18 @@
   <si>
     <t>Воздержался(принявших участие)</t>
   </si>
+  <si>
+    <t>Демян Владислав Иванович</t>
+  </si>
+  <si>
+    <t>Исмаилов Артур Бахтиярович</t>
+  </si>
+  <si>
+    <t>зза</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,103 +322,434 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -437,156 +778,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -640,126 +831,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -771,6 +842,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:P58" headerRowDxfId="19" totalsRowDxfId="18">
+  <autoFilter ref="A1:P58"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="ФИО" totalsRowLabel="Итог" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="КВ" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="13"/>
+    <tableColumn id="4" name="кол-во голосов" dataDxfId="12">
+      <calculatedColumnFormula>C3/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="вопрос 1" dataDxfId="11"/>
+    <tableColumn id="6" name="вопрос 2" dataDxfId="10"/>
+    <tableColumn id="7" name="вопрос 3" dataDxfId="9"/>
+    <tableColumn id="8" name="вопрос 4" dataDxfId="8"/>
+    <tableColumn id="9" name="вопрос 5" dataDxfId="7"/>
+    <tableColumn id="10" name="вопрос 6" dataDxfId="6"/>
+    <tableColumn id="11" name="вопрос 7" dataDxfId="5"/>
+    <tableColumn id="12" name="вопрос 8" dataDxfId="4"/>
+    <tableColumn id="13" name="вопрос 9" dataDxfId="3"/>
+    <tableColumn id="14" name="вопрос 10" dataDxfId="2"/>
+    <tableColumn id="15" name="вопрос 11" dataDxfId="1"/>
+    <tableColumn id="16" name="вопрос 12" totalsRowFunction="count" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,1665 +1134,2470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="25" zoomScaleNormal="55" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>163</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <f>C2/100</f>
         <v>1.63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="6">
         <v>163</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D58" si="0">C3/100</f>
         <v>1.63</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>204</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>151</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>151</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>215</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>136</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>1.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>136</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>1.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
       <c r="C11" s="6">
         <v>160</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>160</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13" s="6">
         <v>200</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
       <c r="C14" s="6">
         <v>200</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
       <c r="C15" s="6">
         <v>151</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
       <c r="C16" s="6">
         <v>151</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>11</v>
       </c>
       <c r="C17" s="6">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5">
         <v>11</v>
       </c>
       <c r="C18" s="6">
         <v>43</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="E18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
         <v>11</v>
       </c>
       <c r="C19" s="6">
         <v>43</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="E19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
         <v>11</v>
       </c>
       <c r="C20" s="6">
         <v>43</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="E20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
         <v>11</v>
       </c>
       <c r="C21" s="6">
         <v>43</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="E21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
         <v>12</v>
       </c>
       <c r="C22" s="6">
         <v>136</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>1.36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
         <v>12</v>
       </c>
       <c r="C23" s="6">
         <v>136</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>1.36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
         <v>13</v>
       </c>
       <c r="C24" s="6">
         <v>323</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>3.23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
         <v>14</v>
       </c>
       <c r="C25" s="6">
         <v>200</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
         <v>15</v>
       </c>
       <c r="C26" s="6">
         <v>202</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4">
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
         <v>16</v>
       </c>
       <c r="C27" s="6">
         <v>299</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
         <v>17</v>
       </c>
       <c r="C28" s="6">
         <v>214</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="E28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
         <v>18</v>
       </c>
       <c r="C29" s="6">
         <v>134</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="E29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
         <v>18</v>
       </c>
       <c r="C30" s="6">
         <v>134</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="E30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
         <v>19</v>
       </c>
       <c r="C31" s="6">
         <v>162</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
         <v>19</v>
       </c>
       <c r="C32" s="6">
         <v>162</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4">
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
         <v>20</v>
       </c>
       <c r="C33" s="6">
         <v>199</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
         <v>21</v>
       </c>
       <c r="C34" s="6">
         <v>101</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4">
+    <row r="35" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
         <v>21</v>
       </c>
       <c r="C35" s="6">
         <v>101</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="7">
         <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
         <v>22</v>
       </c>
       <c r="C36" s="6">
         <v>298</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="7">
         <f t="shared" si="0"/>
         <v>2.98</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5">
         <v>23</v>
       </c>
       <c r="C37" s="6">
         <v>211</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <f t="shared" si="0"/>
         <v>2.11</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5">
         <v>24</v>
       </c>
       <c r="C38" s="6">
         <v>134</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="E38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5">
         <v>24</v>
       </c>
       <c r="C39" s="6">
         <v>134</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4">
+      <c r="E39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5">
         <v>25</v>
       </c>
       <c r="C40" s="6">
         <v>97</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4">
+    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5">
         <v>25</v>
       </c>
       <c r="C41" s="6">
         <v>97</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="7">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4">
+    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5">
         <v>25</v>
       </c>
       <c r="C42" s="6">
         <v>97</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4">
+    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
         <v>26</v>
       </c>
       <c r="C43" s="6">
         <v>207</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <f t="shared" si="0"/>
         <v>2.0699999999999998</v>
       </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" t="s">
-        <v>70</v>
-      </c>
-      <c r="K43" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" t="s">
-        <v>70</v>
-      </c>
-      <c r="M43" t="s">
-        <v>70</v>
-      </c>
-      <c r="N43" t="s">
-        <v>70</v>
-      </c>
-      <c r="O43" t="s">
-        <v>70</v>
-      </c>
-      <c r="P43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="4">
+      <c r="E43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
         <v>27</v>
       </c>
       <c r="C44" s="6">
         <v>205</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="7">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="E44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" t="s">
-        <v>70</v>
-      </c>
-      <c r="K44" t="s">
-        <v>70</v>
-      </c>
-      <c r="L44" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" t="s">
-        <v>70</v>
-      </c>
-      <c r="N44" t="s">
-        <v>70</v>
-      </c>
-      <c r="O44" t="s">
-        <v>70</v>
-      </c>
-      <c r="P44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="E44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5">
         <v>28</v>
       </c>
       <c r="C45" s="6">
         <v>298</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="7">
         <f t="shared" si="0"/>
         <v>2.98</v>
       </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" t="s">
-        <v>70</v>
-      </c>
-      <c r="K45" t="s">
-        <v>70</v>
-      </c>
-      <c r="L45" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" t="s">
-        <v>70</v>
-      </c>
-      <c r="N45" t="s">
-        <v>70</v>
-      </c>
-      <c r="O45" t="s">
-        <v>70</v>
-      </c>
-      <c r="P45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="E45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5">
         <v>29</v>
       </c>
       <c r="C46" s="6">
         <v>293</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="7">
         <f t="shared" si="0"/>
         <v>2.93</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4">
+    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="5">
         <v>30</v>
       </c>
       <c r="C47" s="6">
         <v>203</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="7">
         <f t="shared" si="0"/>
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="4">
+      <c r="E47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="5">
         <v>31</v>
       </c>
       <c r="C48" s="6">
         <v>203</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="7">
         <f t="shared" si="0"/>
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="4">
+    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="5">
         <v>32</v>
       </c>
       <c r="C49" s="6">
         <v>295</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="7">
         <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
-      <c r="E49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-      <c r="J49" t="s">
-        <v>70</v>
-      </c>
-      <c r="K49" t="s">
-        <v>70</v>
-      </c>
-      <c r="L49" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" t="s">
-        <v>70</v>
-      </c>
-      <c r="N49" t="s">
-        <v>70</v>
-      </c>
-      <c r="O49" t="s">
-        <v>70</v>
-      </c>
-      <c r="P49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="4">
+      <c r="E49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5">
         <v>33</v>
       </c>
       <c r="C50" s="6">
         <v>293</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <f t="shared" si="0"/>
         <v>2.93</v>
       </c>
-      <c r="E50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" t="s">
-        <v>70</v>
-      </c>
-      <c r="K50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L50" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="4">
+      <c r="E50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="5">
         <v>34</v>
       </c>
       <c r="C51" s="6">
         <v>203</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="7">
         <f t="shared" si="0"/>
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="4">
+    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="5">
         <v>35</v>
       </c>
       <c r="C52" s="6">
         <v>101</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="7">
         <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" t="s">
-        <v>70</v>
-      </c>
-      <c r="J52" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52" t="s">
-        <v>70</v>
-      </c>
-      <c r="L52" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" t="s">
-        <v>69</v>
-      </c>
-      <c r="N52" t="s">
-        <v>69</v>
-      </c>
-      <c r="O52" t="s">
-        <v>70</v>
-      </c>
-      <c r="P52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="4">
+    </row>
+    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="5">
         <v>35</v>
       </c>
       <c r="C53" s="6">
         <v>101</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
         <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" t="s">
-        <v>70</v>
-      </c>
-      <c r="K53" t="s">
-        <v>70</v>
-      </c>
-      <c r="L53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M53" t="s">
-        <v>69</v>
-      </c>
-      <c r="N53" t="s">
-        <v>69</v>
-      </c>
-      <c r="O53" t="s">
-        <v>70</v>
-      </c>
-      <c r="P53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="4">
+    </row>
+    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="5">
         <v>36</v>
       </c>
       <c r="C54" s="6">
         <v>292</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
         <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="4">
+    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="5">
         <v>37</v>
       </c>
       <c r="C55" s="6">
         <v>289</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="7">
         <f t="shared" si="0"/>
         <v>2.89</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="4">
+    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5">
         <v>38</v>
       </c>
       <c r="C56" s="6">
         <v>200</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="4">
+    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="5">
         <v>39</v>
       </c>
       <c r="C57" s="6">
         <v>202</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="7">
         <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="4">
+    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="5">
         <v>40</v>
       </c>
       <c r="C58" s="6">
         <v>289</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="7">
         <f t="shared" si="0"/>
         <v>2.89</v>
       </c>
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" t="s">
-        <v>70</v>
-      </c>
-      <c r="K58" t="s">
-        <v>70</v>
-      </c>
-      <c r="L58" t="s">
-        <v>70</v>
-      </c>
-      <c r="M58" t="s">
-        <v>70</v>
-      </c>
-      <c r="N58" t="s">
-        <v>70</v>
-      </c>
-      <c r="O58" t="s">
-        <v>70</v>
-      </c>
-      <c r="P58" t="s">
-        <v>70</v>
+      <c r="E58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="7">
+        <f>'наличие голоса'!A58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="F59" s="7">
+        <f>'наличие голоса'!B58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="G59" s="7">
+        <f>'наличие голоса'!C58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="H59" s="7">
+        <f>'наличие голоса'!D58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="I59" s="7">
+        <f>'наличие голоса'!E58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="J59" s="7">
+        <f>'наличие голоса'!F58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="K59" s="7">
+        <f>'наличие голоса'!G58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="L59" s="7">
+        <f>'наличие голоса'!H58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="M59" s="7">
+        <f>'наличие голоса'!I58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="N59" s="7">
+        <f>'наличие голоса'!J58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="O59" s="7">
+        <f>'наличие голоса'!K58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="P59" s="7">
+        <f>'наличие голоса'!L58</f>
+        <v>49.929999999999993</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60">
-        <f>'наличие голоса'!A58</f>
-        <v>19.89</v>
-      </c>
-      <c r="F60">
-        <f>'наличие голоса'!B58</f>
-        <v>19.89</v>
-      </c>
-      <c r="G60">
-        <f>'наличие голоса'!C58</f>
-        <v>19.89</v>
-      </c>
-      <c r="H60">
-        <f>'наличие голоса'!D58</f>
-        <v>19.89</v>
-      </c>
-      <c r="I60">
-        <f>'наличие голоса'!E58</f>
-        <v>19.89</v>
-      </c>
-      <c r="J60">
-        <f>'наличие голоса'!F58</f>
-        <v>19.89</v>
-      </c>
-      <c r="K60">
-        <f>'наличие голоса'!G58</f>
-        <v>19.89</v>
-      </c>
-      <c r="L60">
-        <f>'наличие голоса'!H58</f>
-        <v>19.89</v>
-      </c>
-      <c r="M60">
-        <f>'наличие голоса'!I58</f>
-        <v>19.89</v>
-      </c>
-      <c r="N60">
-        <f>'наличие голоса'!J58</f>
-        <v>19.89</v>
-      </c>
-      <c r="O60">
-        <f>'наличие голоса'!K58</f>
-        <v>19.89</v>
-      </c>
-      <c r="P60">
-        <f>'наличие голоса'!L58</f>
-        <v>19.89</v>
+      <c r="A60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="7">
+        <f>за!A58</f>
+        <v>45.78</v>
+      </c>
+      <c r="F60" s="7">
+        <f>за!B58</f>
+        <v>44.58</v>
+      </c>
+      <c r="G60" s="7">
+        <f>за!C58</f>
+        <v>45.78</v>
+      </c>
+      <c r="H60" s="7">
+        <f>за!D58</f>
+        <v>47.78</v>
+      </c>
+      <c r="I60" s="7">
+        <f>за!E58</f>
+        <v>43.75</v>
+      </c>
+      <c r="J60" s="7">
+        <f>за!F58</f>
+        <v>45.78</v>
+      </c>
+      <c r="K60" s="7">
+        <f>за!G58</f>
+        <v>47.78</v>
+      </c>
+      <c r="L60" s="7">
+        <f>за!H58</f>
+        <v>27.48</v>
+      </c>
+      <c r="M60" s="7">
+        <f>за!I58</f>
+        <v>27.48</v>
+      </c>
+      <c r="N60" s="7">
+        <f>за!J58</f>
+        <v>29.63</v>
+      </c>
+      <c r="O60" s="7">
+        <f>за!K58</f>
+        <v>49.929999999999993</v>
+      </c>
+      <c r="P60" s="7">
+        <f>за!L58</f>
+        <v>43.760000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E61">
-        <f>за!A58</f>
-        <v>17.89</v>
-      </c>
-      <c r="F61">
-        <f>за!B58</f>
-        <v>19.89</v>
-      </c>
-      <c r="G61">
-        <f>за!C58</f>
-        <v>17.89</v>
-      </c>
-      <c r="H61">
-        <f>за!D58</f>
-        <v>19.89</v>
-      </c>
-      <c r="I61">
-        <f>за!E58</f>
-        <v>17.89</v>
-      </c>
-      <c r="J61">
-        <f>за!F58</f>
-        <v>17.89</v>
-      </c>
-      <c r="K61">
-        <f>за!G58</f>
-        <v>19.89</v>
-      </c>
-      <c r="L61">
-        <f>за!H58</f>
-        <v>15.870000000000001</v>
-      </c>
-      <c r="M61">
-        <f>за!I58</f>
-        <v>15.870000000000001</v>
-      </c>
-      <c r="N61">
-        <f>за!J58</f>
-        <v>15.870000000000001</v>
-      </c>
-      <c r="O61">
-        <f>за!K58</f>
-        <v>19.89</v>
-      </c>
-      <c r="P61">
-        <f>за!L58</f>
-        <v>15.870000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62">
+      <c r="E61" s="7">
         <f>против!A58</f>
-        <v>2</v>
-      </c>
-      <c r="F62">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F61" s="7">
         <f>против!B58</f>
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="G61" s="7">
         <f>против!C58</f>
         <v>2</v>
       </c>
-      <c r="H62">
+      <c r="H61" s="7">
         <f>против!D58</f>
         <v>0</v>
       </c>
-      <c r="I62">
+      <c r="I61" s="7">
         <f>против!E58</f>
-        <v>2</v>
-      </c>
-      <c r="J62">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J61" s="7">
         <f>против!F58</f>
-        <v>2</v>
-      </c>
-      <c r="K62">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K61" s="7">
         <f>против!G58</f>
         <v>0</v>
       </c>
-      <c r="L62">
+      <c r="L61" s="7">
         <f>против!H58</f>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="M62">
+        <v>20.300000000000004</v>
+      </c>
+      <c r="M61" s="7">
         <f>против!I58</f>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="N62">
+        <v>20.300000000000004</v>
+      </c>
+      <c r="N61" s="7">
         <f>против!J58</f>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="O62">
+        <v>16.11</v>
+      </c>
+      <c r="O61" s="7">
         <f>против!K58</f>
         <v>0</v>
       </c>
-      <c r="P62">
+      <c r="P61" s="7">
         <f>против!L58</f>
         <v>2</v>
       </c>
     </row>
+    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="7">
+        <f>воздержался!A58</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <f>воздержался!B58</f>
+        <v>5.35</v>
+      </c>
+      <c r="G62" s="7">
+        <f>воздержался!C58</f>
+        <v>2.15</v>
+      </c>
+      <c r="H62" s="7">
+        <f>воздержался!D58</f>
+        <v>2.15</v>
+      </c>
+      <c r="I62" s="7">
+        <f>воздержался!E58</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <f>воздержался!F58</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <f>воздержался!G58</f>
+        <v>2.15</v>
+      </c>
+      <c r="L62" s="7">
+        <f>воздержался!H58</f>
+        <v>2.15</v>
+      </c>
+      <c r="M62" s="7">
+        <f>воздержался!I58</f>
+        <v>2.15</v>
+      </c>
+      <c r="N62" s="7">
+        <f>воздержался!J58</f>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="O62" s="7">
+        <f>воздержался!K58</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <f>воздержался!L58</f>
+        <v>4.17</v>
+      </c>
+    </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63">
-        <f>воздержался!A58</f>
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f>воздержался!B58</f>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f>воздержался!C58</f>
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f>воздержался!D58</f>
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <f>воздержался!E58</f>
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f>воздержался!F58</f>
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <f>воздержался!G58</f>
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f>воздержался!H58</f>
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <f>воздержался!I58</f>
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <f>воздержался!J58</f>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <f>воздержался!K58</f>
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <f>воздержался!L58</f>
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="10">
-        <f>E61/E$60</f>
-        <v>0.89944695827048771</v>
-      </c>
-      <c r="F64" s="10">
-        <f t="shared" ref="F64:P64" si="1">F61/F$60</f>
-        <v>1</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="A63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="11">
+        <f>E60/E$59</f>
+        <v>0.91688363709192888</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" ref="F63:P63" si="1">F60/F$59</f>
+        <v>0.89284998998598042</v>
+      </c>
+      <c r="G63" s="11">
         <f t="shared" si="1"/>
-        <v>0.89944695827048771</v>
-      </c>
-      <c r="H64" s="10">
+        <v>0.91688363709192888</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.95693971560184277</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.8762267174043662</v>
+      </c>
+      <c r="J63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.91688363709192888</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.95693971560184277</v>
+      </c>
+      <c r="L63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55037051872621678</v>
+      </c>
+      <c r="M63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55037051872621678</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.59343080312437424</v>
+      </c>
+      <c r="O63" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I64" s="10">
+      <c r="P63" s="11">
         <f t="shared" si="1"/>
-        <v>0.89944695827048771</v>
-      </c>
-      <c r="J64" s="10">
-        <f t="shared" si="1"/>
-        <v>0.89944695827048771</v>
-      </c>
-      <c r="K64" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L64" s="10">
-        <f t="shared" si="1"/>
-        <v>0.79788838612368029</v>
-      </c>
-      <c r="M64" s="10">
-        <f t="shared" si="1"/>
-        <v>0.79788838612368029</v>
-      </c>
-      <c r="N64" s="10">
-        <f t="shared" si="1"/>
-        <v>0.79788838612368029</v>
-      </c>
-      <c r="O64" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P64" s="10">
-        <f t="shared" si="1"/>
-        <v>0.79788838612368029</v>
+        <v>0.87642699779691591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" ref="E64:P64" si="2">E61/E$59</f>
+        <v>8.3116362908071326E-2</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="2"/>
+        <v>4.0056078509913884E-2</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="2"/>
+        <v>8.3116362908071326E-2</v>
+      </c>
+      <c r="J64" s="11">
+        <f t="shared" si="2"/>
+        <v>8.3116362908071326E-2</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <f t="shared" si="2"/>
+        <v>0.40656919687562604</v>
+      </c>
+      <c r="M64" s="11">
+        <f t="shared" si="2"/>
+        <v>0.40656919687562604</v>
+      </c>
+      <c r="N64" s="11">
+        <f t="shared" si="2"/>
+        <v>0.32265171239735635</v>
+      </c>
+      <c r="O64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
+        <f t="shared" si="2"/>
+        <v>4.0056078509913884E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="10">
-        <f t="shared" ref="E65:P65" si="2">E62/E$60</f>
-        <v>0.10055304172951232</v>
-      </c>
-      <c r="F65" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10055304172951232</v>
-      </c>
-      <c r="H65" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10055304172951232</v>
-      </c>
-      <c r="J65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10055304172951232</v>
-      </c>
-      <c r="K65" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20211161387631973</v>
-      </c>
-      <c r="M65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20211161387631973</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20211161387631973</v>
-      </c>
-      <c r="O65" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10055304172951232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="10">
-        <f t="shared" ref="E66:P66" si="3">E63/E$60</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="10">
+      <c r="E65" s="11">
+        <f t="shared" ref="E65:P65" si="3">E62/E$59</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
+        <v>0.10715001001401964</v>
+      </c>
+      <c r="G65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
+        <v>4.3060284398157428E-2</v>
+      </c>
+      <c r="H65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="10">
+        <v>4.3060284398157428E-2</v>
+      </c>
+      <c r="I65" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J65" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="10">
+        <v>4.3060284398157428E-2</v>
+      </c>
+      <c r="L65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="10">
+        <v>4.3060284398157428E-2</v>
+      </c>
+      <c r="M65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="10">
+        <v>4.3060284398157428E-2</v>
+      </c>
+      <c r="N65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="10">
+        <v>8.3917484478269591E-2</v>
+      </c>
+      <c r="O65" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P65" s="11">
         <f t="shared" si="3"/>
-        <v>0.10155857214680744</v>
+        <v>8.3516923693170445E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:P58">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="против">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="воздержался">
+      <formula>NOT(ISERROR(SEARCH("воздержался",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="за">
+      <formula>NOT(ISERROR(SEARCH("за",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="против">
       <formula>NOT(ISERROR(SEARCH("против",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="за">
-      <formula>NOT(ISERROR(SEARCH("за",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="воздержался">
-      <formula>NOT(ISERROR(SEARCH("воздержался",E2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:P60">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="E59:P59">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:P64">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="E63:P63">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:P65">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E64:P64">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="17" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Лист2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:P58</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
@@ -2807,101 +3710,101 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF(NOT(ISBLANK(Лист1!E4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f>IF(NOT(ISBLANK(Лист1!F4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f>IF(NOT(ISBLANK(Лист1!G4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>IF(NOT(ISBLANK(Лист1!H4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f>IF(NOT(ISBLANK(Лист1!I4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f>IF(NOT(ISBLANK(Лист1!J4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>IF(NOT(ISBLANK(Лист1!K4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>IF(NOT(ISBLANK(Лист1!L4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f>IF(NOT(ISBLANK(Лист1!M4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f>IF(NOT(ISBLANK(Лист1!N4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <f>IF(NOT(ISBLANK(Лист1!O4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f>IF(NOT(ISBLANK(Лист1!P4)),Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>IF(NOT(ISBLANK(Лист1!E5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="B4">
         <f>IF(NOT(ISBLANK(Лист1!F5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="C4">
         <f>IF(NOT(ISBLANK(Лист1!G5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="D4">
         <f>IF(NOT(ISBLANK(Лист1!H5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="E4">
         <f>IF(NOT(ISBLANK(Лист1!I5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="F4">
         <f>IF(NOT(ISBLANK(Лист1!J5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G4">
         <f>IF(NOT(ISBLANK(Лист1!K5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H4">
         <f>IF(NOT(ISBLANK(Лист1!L5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="I4">
         <f>IF(NOT(ISBLANK(Лист1!M5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="J4">
         <f>IF(NOT(ISBLANK(Лист1!N5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="K4">
         <f>IF(NOT(ISBLANK(Лист1!O5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="L4">
         <f>IF(NOT(ISBLANK(Лист1!P5)),Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3007,251 +3910,251 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(NOT(ISBLANK(Лист1!E8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="B7">
         <f>IF(NOT(ISBLANK(Лист1!F8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="C7">
         <f>IF(NOT(ISBLANK(Лист1!G8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="D7">
         <f>IF(NOT(ISBLANK(Лист1!H8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="E7">
         <f>IF(NOT(ISBLANK(Лист1!I8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="F7">
         <f>IF(NOT(ISBLANK(Лист1!J8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="G7">
         <f>IF(NOT(ISBLANK(Лист1!K8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H7">
         <f>IF(NOT(ISBLANK(Лист1!L8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I7">
         <f>IF(NOT(ISBLANK(Лист1!M8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J7">
         <f>IF(NOT(ISBLANK(Лист1!N8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="K7">
         <f>IF(NOT(ISBLANK(Лист1!O8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="L7">
         <f>IF(NOT(ISBLANK(Лист1!P8)),Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>IF(NOT(ISBLANK(Лист1!E9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B8">
         <f>IF(NOT(ISBLANK(Лист1!F9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="C8">
         <f>IF(NOT(ISBLANK(Лист1!G9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="D8">
         <f>IF(NOT(ISBLANK(Лист1!H9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="E8">
         <f>IF(NOT(ISBLANK(Лист1!I9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F8">
         <f>IF(NOT(ISBLANK(Лист1!J9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G8">
         <f>IF(NOT(ISBLANK(Лист1!K9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H8">
         <f>IF(NOT(ISBLANK(Лист1!L9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="I8">
         <f>IF(NOT(ISBLANK(Лист1!M9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="J8">
         <f>IF(NOT(ISBLANK(Лист1!N9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="K8">
         <f>IF(NOT(ISBLANK(Лист1!O9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L8">
         <f>IF(NOT(ISBLANK(Лист1!P9)),Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>IF(NOT(ISBLANK(Лист1!E10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B9">
         <f>IF(NOT(ISBLANK(Лист1!F10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="C9">
         <f>IF(NOT(ISBLANK(Лист1!G10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="D9">
         <f>IF(NOT(ISBLANK(Лист1!H10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="E9">
         <f>IF(NOT(ISBLANK(Лист1!I10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F9">
         <f>IF(NOT(ISBLANK(Лист1!J10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G9">
         <f>IF(NOT(ISBLANK(Лист1!K10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H9">
         <f>IF(NOT(ISBLANK(Лист1!L10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="I9">
         <f>IF(NOT(ISBLANK(Лист1!M10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="J9">
         <f>IF(NOT(ISBLANK(Лист1!N10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="K9">
         <f>IF(NOT(ISBLANK(Лист1!O10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L9">
         <f>IF(NOT(ISBLANK(Лист1!P10)),Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>IF(NOT(ISBLANK(Лист1!E11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="B10">
         <f>IF(NOT(ISBLANK(Лист1!F11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C10">
         <f>IF(NOT(ISBLANK(Лист1!G11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
         <f>IF(NOT(ISBLANK(Лист1!H11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
         <f>IF(NOT(ISBLANK(Лист1!I11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F10">
         <f>IF(NOT(ISBLANK(Лист1!J11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G10">
         <f>IF(NOT(ISBLANK(Лист1!K11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H10">
         <f>IF(NOT(ISBLANK(Лист1!L11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I10">
         <f>IF(NOT(ISBLANK(Лист1!M11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
         <f>IF(NOT(ISBLANK(Лист1!N11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K10">
         <f>IF(NOT(ISBLANK(Лист1!O11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L10">
         <f>IF(NOT(ISBLANK(Лист1!P11)),Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>IF(NOT(ISBLANK(Лист1!E12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="B11">
         <f>IF(NOT(ISBLANK(Лист1!F12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C11">
         <f>IF(NOT(ISBLANK(Лист1!G12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
         <f>IF(NOT(ISBLANK(Лист1!H12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E11">
         <f>IF(NOT(ISBLANK(Лист1!I12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F11">
         <f>IF(NOT(ISBLANK(Лист1!J12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G11">
         <f>IF(NOT(ISBLANK(Лист1!K12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
         <f>IF(NOT(ISBLANK(Лист1!L12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I11">
         <f>IF(NOT(ISBLANK(Лист1!M12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J11">
         <f>IF(NOT(ISBLANK(Лист1!N12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K11">
         <f>IF(NOT(ISBLANK(Лист1!O12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L11">
         <f>IF(NOT(ISBLANK(Лист1!P12)),Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3357,351 +4260,351 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>IF(NOT(ISBLANK(Лист1!E15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B14">
         <f>IF(NOT(ISBLANK(Лист1!F15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C14">
         <f>IF(NOT(ISBLANK(Лист1!G15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D14">
         <f>IF(NOT(ISBLANK(Лист1!H15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E14">
         <f>IF(NOT(ISBLANK(Лист1!I15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F14">
         <f>IF(NOT(ISBLANK(Лист1!J15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G14">
         <f>IF(NOT(ISBLANK(Лист1!K15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H14">
         <f>IF(NOT(ISBLANK(Лист1!L15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I14">
         <f>IF(NOT(ISBLANK(Лист1!M15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J14">
         <f>IF(NOT(ISBLANK(Лист1!N15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K14">
         <f>IF(NOT(ISBLANK(Лист1!O15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L14">
         <f>IF(NOT(ISBLANK(Лист1!P15)),Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>IF(NOT(ISBLANK(Лист1!E16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B15">
         <f>IF(NOT(ISBLANK(Лист1!F16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C15">
         <f>IF(NOT(ISBLANK(Лист1!G16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D15">
         <f>IF(NOT(ISBLANK(Лист1!H16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E15">
         <f>IF(NOT(ISBLANK(Лист1!I16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F15">
         <f>IF(NOT(ISBLANK(Лист1!J16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G15">
         <f>IF(NOT(ISBLANK(Лист1!K16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H15">
         <f>IF(NOT(ISBLANK(Лист1!L16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I15">
         <f>IF(NOT(ISBLANK(Лист1!M16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J15">
         <f>IF(NOT(ISBLANK(Лист1!N16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K15">
         <f>IF(NOT(ISBLANK(Лист1!O16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L15">
         <f>IF(NOT(ISBLANK(Лист1!P16)),Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>IF(NOT(ISBLANK(Лист1!E17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B16">
         <f>IF(NOT(ISBLANK(Лист1!F17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C16">
         <f>IF(NOT(ISBLANK(Лист1!G17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D16">
         <f>IF(NOT(ISBLANK(Лист1!H17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E16">
         <f>IF(NOT(ISBLANK(Лист1!I17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F16">
         <f>IF(NOT(ISBLANK(Лист1!J17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G16">
         <f>IF(NOT(ISBLANK(Лист1!K17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H16">
         <f>IF(NOT(ISBLANK(Лист1!L17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I16">
         <f>IF(NOT(ISBLANK(Лист1!M17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J16">
         <f>IF(NOT(ISBLANK(Лист1!N17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K16">
         <f>IF(NOT(ISBLANK(Лист1!O17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L16">
         <f>IF(NOT(ISBLANK(Лист1!P17)),Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>IF(NOT(ISBLANK(Лист1!E18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B17">
         <f>IF(NOT(ISBLANK(Лист1!F18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C17">
         <f>IF(NOT(ISBLANK(Лист1!G18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D17">
         <f>IF(NOT(ISBLANK(Лист1!H18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E17">
         <f>IF(NOT(ISBLANK(Лист1!I18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F17">
         <f>IF(NOT(ISBLANK(Лист1!J18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G17">
         <f>IF(NOT(ISBLANK(Лист1!K18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H17">
         <f>IF(NOT(ISBLANK(Лист1!L18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I17">
         <f>IF(NOT(ISBLANK(Лист1!M18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J17">
         <f>IF(NOT(ISBLANK(Лист1!N18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K17">
         <f>IF(NOT(ISBLANK(Лист1!O18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L17">
         <f>IF(NOT(ISBLANK(Лист1!P18)),Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>IF(NOT(ISBLANK(Лист1!E19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B18">
         <f>IF(NOT(ISBLANK(Лист1!F19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C18">
         <f>IF(NOT(ISBLANK(Лист1!G19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D18">
         <f>IF(NOT(ISBLANK(Лист1!H19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E18">
         <f>IF(NOT(ISBLANK(Лист1!I19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F18">
         <f>IF(NOT(ISBLANK(Лист1!J19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G18">
         <f>IF(NOT(ISBLANK(Лист1!K19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H18">
         <f>IF(NOT(ISBLANK(Лист1!L19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I18">
         <f>IF(NOT(ISBLANK(Лист1!M19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J18">
         <f>IF(NOT(ISBLANK(Лист1!N19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K18">
         <f>IF(NOT(ISBLANK(Лист1!O19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L18">
         <f>IF(NOT(ISBLANK(Лист1!P19)),Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>IF(NOT(ISBLANK(Лист1!E20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B19">
         <f>IF(NOT(ISBLANK(Лист1!F20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C19">
         <f>IF(NOT(ISBLANK(Лист1!G20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D19">
         <f>IF(NOT(ISBLANK(Лист1!H20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E19">
         <f>IF(NOT(ISBLANK(Лист1!I20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F19">
         <f>IF(NOT(ISBLANK(Лист1!J20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G19">
         <f>IF(NOT(ISBLANK(Лист1!K20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H19">
         <f>IF(NOT(ISBLANK(Лист1!L20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I19">
         <f>IF(NOT(ISBLANK(Лист1!M20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J19">
         <f>IF(NOT(ISBLANK(Лист1!N20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K19">
         <f>IF(NOT(ISBLANK(Лист1!O20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L19">
         <f>IF(NOT(ISBLANK(Лист1!P20)),Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>IF(NOT(ISBLANK(Лист1!E21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B20">
         <f>IF(NOT(ISBLANK(Лист1!F21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C20">
         <f>IF(NOT(ISBLANK(Лист1!G21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D20">
         <f>IF(NOT(ISBLANK(Лист1!H21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E20">
         <f>IF(NOT(ISBLANK(Лист1!I21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F20">
         <f>IF(NOT(ISBLANK(Лист1!J21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G20">
         <f>IF(NOT(ISBLANK(Лист1!K21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H20">
         <f>IF(NOT(ISBLANK(Лист1!L21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I20">
         <f>IF(NOT(ISBLANK(Лист1!M21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J20">
         <f>IF(NOT(ISBLANK(Лист1!N21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K20">
         <f>IF(NOT(ISBLANK(Лист1!O21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L20">
         <f>IF(NOT(ISBLANK(Лист1!P21)),Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3807,51 +4710,51 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>IF(NOT(ISBLANK(Лист1!E24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="B23">
         <f>IF(NOT(ISBLANK(Лист1!F24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="C23">
         <f>IF(NOT(ISBLANK(Лист1!G24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="D23">
         <f>IF(NOT(ISBLANK(Лист1!H24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="E23">
         <f>IF(NOT(ISBLANK(Лист1!I24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="F23">
         <f>IF(NOT(ISBLANK(Лист1!J24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="G23">
         <f>IF(NOT(ISBLANK(Лист1!K24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="H23">
         <f>IF(NOT(ISBLANK(Лист1!L24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="I23">
         <f>IF(NOT(ISBLANK(Лист1!M24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="J23">
         <f>IF(NOT(ISBLANK(Лист1!N24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="K23">
         <f>IF(NOT(ISBLANK(Лист1!O24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="L23">
         <f>IF(NOT(ISBLANK(Лист1!P24)),Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4007,151 +4910,151 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>IF(NOT(ISBLANK(Лист1!E28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="B27">
         <f>IF(NOT(ISBLANK(Лист1!F28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="C27">
         <f>IF(NOT(ISBLANK(Лист1!G28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="D27">
         <f>IF(NOT(ISBLANK(Лист1!H28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="E27">
         <f>IF(NOT(ISBLANK(Лист1!I28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="F27">
         <f>IF(NOT(ISBLANK(Лист1!J28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G27">
         <f>IF(NOT(ISBLANK(Лист1!K28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="H27">
         <f>IF(NOT(ISBLANK(Лист1!L28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="I27">
         <f>IF(NOT(ISBLANK(Лист1!M28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="J27">
         <f>IF(NOT(ISBLANK(Лист1!N28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="K27">
         <f>IF(NOT(ISBLANK(Лист1!O28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="L27">
         <f>IF(NOT(ISBLANK(Лист1!P28)),Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>IF(NOT(ISBLANK(Лист1!E29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B28">
         <f>IF(NOT(ISBLANK(Лист1!F29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C28">
         <f>IF(NOT(ISBLANK(Лист1!G29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D28">
         <f>IF(NOT(ISBLANK(Лист1!H29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E28">
         <f>IF(NOT(ISBLANK(Лист1!I29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F28">
         <f>IF(NOT(ISBLANK(Лист1!J29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G28">
         <f>IF(NOT(ISBLANK(Лист1!K29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H28">
         <f>IF(NOT(ISBLANK(Лист1!L29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I28">
         <f>IF(NOT(ISBLANK(Лист1!M29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J28">
         <f>IF(NOT(ISBLANK(Лист1!N29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K28">
         <f>IF(NOT(ISBLANK(Лист1!O29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L28">
         <f>IF(NOT(ISBLANK(Лист1!P29)),Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>IF(NOT(ISBLANK(Лист1!E30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B29">
         <f>IF(NOT(ISBLANK(Лист1!F30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C29">
         <f>IF(NOT(ISBLANK(Лист1!G30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D29">
         <f>IF(NOT(ISBLANK(Лист1!H30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E29">
         <f>IF(NOT(ISBLANK(Лист1!I30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F29">
         <f>IF(NOT(ISBLANK(Лист1!J30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G29">
         <f>IF(NOT(ISBLANK(Лист1!K30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H29">
         <f>IF(NOT(ISBLANK(Лист1!L30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I29">
         <f>IF(NOT(ISBLANK(Лист1!M30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J29">
         <f>IF(NOT(ISBLANK(Лист1!N30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K29">
         <f>IF(NOT(ISBLANK(Лист1!O30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L29">
         <f>IF(NOT(ISBLANK(Лист1!P30)),Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4507,101 +5410,101 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>IF(NOT(ISBLANK(Лист1!E38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B37">
         <f>IF(NOT(ISBLANK(Лист1!F38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C37">
         <f>IF(NOT(ISBLANK(Лист1!G38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D37">
         <f>IF(NOT(ISBLANK(Лист1!H38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E37">
         <f>IF(NOT(ISBLANK(Лист1!I38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F37">
         <f>IF(NOT(ISBLANK(Лист1!J38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G37">
         <f>IF(NOT(ISBLANK(Лист1!K38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H37">
         <f>IF(NOT(ISBLANK(Лист1!L38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I37">
         <f>IF(NOT(ISBLANK(Лист1!M38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J37">
         <f>IF(NOT(ISBLANK(Лист1!N38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K37">
         <f>IF(NOT(ISBLANK(Лист1!O38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L37">
         <f>IF(NOT(ISBLANK(Лист1!P38)),Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>IF(NOT(ISBLANK(Лист1!E39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B38">
         <f>IF(NOT(ISBLANK(Лист1!F39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C38">
         <f>IF(NOT(ISBLANK(Лист1!G39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D38">
         <f>IF(NOT(ISBLANK(Лист1!H39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E38">
         <f>IF(NOT(ISBLANK(Лист1!I39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F38">
         <f>IF(NOT(ISBLANK(Лист1!J39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G38">
         <f>IF(NOT(ISBLANK(Лист1!K39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H38">
         <f>IF(NOT(ISBLANK(Лист1!L39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I38">
         <f>IF(NOT(ISBLANK(Лист1!M39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J38">
         <f>IF(NOT(ISBLANK(Лист1!N39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K38">
         <f>IF(NOT(ISBLANK(Лист1!O39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L38">
         <f>IF(NOT(ISBLANK(Лист1!P39)),Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4957,51 +5860,51 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>IF(NOT(ISBLANK(Лист1!E47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B46">
         <f>IF(NOT(ISBLANK(Лист1!F47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C46">
         <f>IF(NOT(ISBLANK(Лист1!G47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D46">
         <f>IF(NOT(ISBLANK(Лист1!H47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E46">
         <f>IF(NOT(ISBLANK(Лист1!I47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F46">
         <f>IF(NOT(ISBLANK(Лист1!J47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G46">
         <f>IF(NOT(ISBLANK(Лист1!K47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H46">
         <f>IF(NOT(ISBLANK(Лист1!L47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I46">
         <f>IF(NOT(ISBLANK(Лист1!M47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J46">
         <f>IF(NOT(ISBLANK(Лист1!N47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K46">
         <f>IF(NOT(ISBLANK(Лист1!O47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L46">
         <f>IF(NOT(ISBLANK(Лист1!P47)),Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5557,51 +6460,51 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(A1:A57)</f>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:L58" si="0">SUM(B1:B57)</f>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -5609,7 +6512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
@@ -5722,31 +6625,31 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF(Лист1!E4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f>IF(Лист1!F4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f>IF(Лист1!G4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>IF(Лист1!H4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f>IF(Лист1!I4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f>IF(Лист1!J4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>IF(Лист1!K4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>IF(Лист1!L4="за",Лист1!$D4,0)</f>
@@ -5762,41 +6665,41 @@
       </c>
       <c r="K3">
         <f>IF(Лист1!O4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f>IF(Лист1!P4="за",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>IF(Лист1!E5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="B4">
         <f>IF(Лист1!F5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="C4">
         <f>IF(Лист1!G5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="D4">
         <f>IF(Лист1!H5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="E4">
         <f>IF(Лист1!I5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="F4">
         <f>IF(Лист1!J5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G4">
         <f>IF(Лист1!K5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H4">
         <f>IF(Лист1!L5="за",Лист1!$D5,0)</f>
@@ -5812,11 +6715,11 @@
       </c>
       <c r="K4">
         <f>IF(Лист1!O5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="L4">
         <f>IF(Лист1!P5="за",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5922,27 +6825,27 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(Лист1!E8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="B7">
         <f>IF(Лист1!F8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="C7">
         <f>IF(Лист1!G8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="D7">
         <f>IF(Лист1!H8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="E7">
         <f>IF(Лист1!I8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="F7">
         <f>IF(Лист1!J8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="G7">
         <f>IF(Лист1!K8="за",Лист1!$D8,0)</f>
@@ -5958,45 +6861,45 @@
       </c>
       <c r="J7">
         <f>IF(Лист1!N8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="K7">
         <f>IF(Лист1!O8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="L7">
         <f>IF(Лист1!P8="за",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>IF(Лист1!E9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B8">
         <f>IF(Лист1!F9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="C8">
         <f>IF(Лист1!G9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="D8">
         <f>IF(Лист1!H9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="E8">
         <f>IF(Лист1!I9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F8">
         <f>IF(Лист1!J9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G8">
         <f>IF(Лист1!K9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H8">
         <f>IF(Лист1!L9="за",Лист1!$D9,0)</f>
@@ -6012,41 +6915,41 @@
       </c>
       <c r="K8">
         <f>IF(Лист1!O9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L8">
         <f>IF(Лист1!P9="за",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>IF(Лист1!E10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B9">
         <f>IF(Лист1!F10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="C9">
         <f>IF(Лист1!G10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="D9">
         <f>IF(Лист1!H10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="E9">
         <f>IF(Лист1!I10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F9">
         <f>IF(Лист1!J10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G9">
         <f>IF(Лист1!K10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H9">
         <f>IF(Лист1!L10="за",Лист1!$D10,0)</f>
@@ -6062,17 +6965,17 @@
       </c>
       <c r="K9">
         <f>IF(Лист1!O10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L9">
         <f>IF(Лист1!P10="за",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>IF(Лист1!E11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="B10">
         <f>IF(Лист1!F11="за",Лист1!$D11,0)</f>
@@ -6080,23 +6983,23 @@
       </c>
       <c r="C10">
         <f>IF(Лист1!G11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
         <f>IF(Лист1!H11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
         <f>IF(Лист1!I11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F10">
         <f>IF(Лист1!J11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G10">
         <f>IF(Лист1!K11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H10">
         <f>IF(Лист1!L11="за",Лист1!$D11,0)</f>
@@ -6112,17 +7015,17 @@
       </c>
       <c r="K10">
         <f>IF(Лист1!O11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L10">
         <f>IF(Лист1!P11="за",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>IF(Лист1!E12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="B11">
         <f>IF(Лист1!F12="за",Лист1!$D12,0)</f>
@@ -6130,23 +7033,23 @@
       </c>
       <c r="C11">
         <f>IF(Лист1!G12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
         <f>IF(Лист1!H12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E11">
         <f>IF(Лист1!I12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F11">
         <f>IF(Лист1!J12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G11">
         <f>IF(Лист1!K12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
         <f>IF(Лист1!L12="за",Лист1!$D12,0)</f>
@@ -6162,11 +7065,11 @@
       </c>
       <c r="K11">
         <f>IF(Лист1!O12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L11">
         <f>IF(Лист1!P12="за",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6272,101 +7175,101 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>IF(Лист1!E15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B14">
         <f>IF(Лист1!F15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C14">
         <f>IF(Лист1!G15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D14">
         <f>IF(Лист1!H15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E14">
         <f>IF(Лист1!I15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F14">
         <f>IF(Лист1!J15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G14">
         <f>IF(Лист1!K15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H14">
         <f>IF(Лист1!L15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I14">
         <f>IF(Лист1!M15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J14">
         <f>IF(Лист1!N15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K14">
         <f>IF(Лист1!O15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L14">
         <f>IF(Лист1!P15="за",Лист1!$D15,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>IF(Лист1!E16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B15">
         <f>IF(Лист1!F16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C15">
         <f>IF(Лист1!G16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D15">
         <f>IF(Лист1!H16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E15">
         <f>IF(Лист1!I16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F15">
         <f>IF(Лист1!J16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G15">
         <f>IF(Лист1!K16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H15">
         <f>IF(Лист1!L16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I15">
         <f>IF(Лист1!M16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J15">
         <f>IF(Лист1!N16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K15">
         <f>IF(Лист1!O16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L15">
         <f>IF(Лист1!P16="за",Лист1!$D16,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6396,7 +7299,7 @@
       </c>
       <c r="G16">
         <f>IF(Лист1!K17="за",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H16">
         <f>IF(Лист1!L17="за",Лист1!$D17,0)</f>
@@ -6412,7 +7315,7 @@
       </c>
       <c r="K16">
         <f>IF(Лист1!O17="за",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L16">
         <f>IF(Лист1!P17="за",Лист1!$D17,0)</f>
@@ -6446,7 +7349,7 @@
       </c>
       <c r="G17">
         <f>IF(Лист1!K18="за",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H17">
         <f>IF(Лист1!L18="за",Лист1!$D18,0)</f>
@@ -6462,7 +7365,7 @@
       </c>
       <c r="K17">
         <f>IF(Лист1!O18="за",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L17">
         <f>IF(Лист1!P18="за",Лист1!$D18,0)</f>
@@ -6496,7 +7399,7 @@
       </c>
       <c r="G18">
         <f>IF(Лист1!K19="за",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H18">
         <f>IF(Лист1!L19="за",Лист1!$D19,0)</f>
@@ -6512,7 +7415,7 @@
       </c>
       <c r="K18">
         <f>IF(Лист1!O19="за",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L18">
         <f>IF(Лист1!P19="за",Лист1!$D19,0)</f>
@@ -6546,7 +7449,7 @@
       </c>
       <c r="G19">
         <f>IF(Лист1!K20="за",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H19">
         <f>IF(Лист1!L20="за",Лист1!$D20,0)</f>
@@ -6562,7 +7465,7 @@
       </c>
       <c r="K19">
         <f>IF(Лист1!O20="за",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L19">
         <f>IF(Лист1!P20="за",Лист1!$D20,0)</f>
@@ -6596,7 +7499,7 @@
       </c>
       <c r="G20">
         <f>IF(Лист1!K21="за",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H20">
         <f>IF(Лист1!L21="за",Лист1!$D21,0)</f>
@@ -6612,7 +7515,7 @@
       </c>
       <c r="K20">
         <f>IF(Лист1!O21="за",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="L20">
         <f>IF(Лист1!P21="за",Лист1!$D21,0)</f>
@@ -6722,51 +7625,51 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>IF(Лист1!E24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="B23">
         <f>IF(Лист1!F24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="C23">
         <f>IF(Лист1!G24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="D23">
         <f>IF(Лист1!H24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="E23">
         <f>IF(Лист1!I24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="F23">
         <f>IF(Лист1!J24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="G23">
         <f>IF(Лист1!K24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="H23">
         <f>IF(Лист1!L24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="I23">
         <f>IF(Лист1!M24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="J23">
         <f>IF(Лист1!N24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="K23">
         <f>IF(Лист1!O24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="L23">
         <f>IF(Лист1!P24="за",Лист1!$D24,0)</f>
-        <v>0</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6922,31 +7825,31 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>IF(Лист1!E28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="B27">
         <f>IF(Лист1!F28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="C27">
         <f>IF(Лист1!G28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="D27">
         <f>IF(Лист1!H28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="E27">
         <f>IF(Лист1!I28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="F27">
         <f>IF(Лист1!J28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G27">
         <f>IF(Лист1!K28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="H27">
         <f>IF(Лист1!L28="за",Лист1!$D28,0)</f>
@@ -6962,111 +7865,111 @@
       </c>
       <c r="K27">
         <f>IF(Лист1!O28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="L27">
         <f>IF(Лист1!P28="за",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>IF(Лист1!E29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B28">
         <f>IF(Лист1!F29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C28">
         <f>IF(Лист1!G29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D28">
         <f>IF(Лист1!H29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E28">
         <f>IF(Лист1!I29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F28">
         <f>IF(Лист1!J29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G28">
         <f>IF(Лист1!K29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H28">
         <f>IF(Лист1!L29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I28">
         <f>IF(Лист1!M29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J28">
         <f>IF(Лист1!N29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K28">
         <f>IF(Лист1!O29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L28">
         <f>IF(Лист1!P29="за",Лист1!$D29,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>IF(Лист1!E30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B29">
         <f>IF(Лист1!F30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C29">
         <f>IF(Лист1!G30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D29">
         <f>IF(Лист1!H30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E29">
         <f>IF(Лист1!I30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F29">
         <f>IF(Лист1!J30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G29">
         <f>IF(Лист1!K30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H29">
         <f>IF(Лист1!L30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I29">
         <f>IF(Лист1!M30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J29">
         <f>IF(Лист1!N30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K29">
         <f>IF(Лист1!O30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L29">
         <f>IF(Лист1!P30="за",Лист1!$D30,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7422,101 +8325,101 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>IF(Лист1!E38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B37">
         <f>IF(Лист1!F38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C37">
         <f>IF(Лист1!G38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D37">
         <f>IF(Лист1!H38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E37">
         <f>IF(Лист1!I38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F37">
         <f>IF(Лист1!J38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G37">
         <f>IF(Лист1!K38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H37">
         <f>IF(Лист1!L38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I37">
         <f>IF(Лист1!M38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J37">
         <f>IF(Лист1!N38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K37">
         <f>IF(Лист1!O38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L37">
         <f>IF(Лист1!P38="за",Лист1!$D38,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>IF(Лист1!E39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B38">
         <f>IF(Лист1!F39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="C38">
         <f>IF(Лист1!G39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D38">
         <f>IF(Лист1!H39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E38">
         <f>IF(Лист1!I39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F38">
         <f>IF(Лист1!J39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G38">
         <f>IF(Лист1!K39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H38">
         <f>IF(Лист1!L39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I38">
         <f>IF(Лист1!M39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J38">
         <f>IF(Лист1!N39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="K38">
         <f>IF(Лист1!O39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L38">
         <f>IF(Лист1!P39="за",Лист1!$D39,0)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -7872,19 +8775,19 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>IF(Лист1!E47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B46">
         <f>IF(Лист1!F47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C46">
         <f>IF(Лист1!G47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D46">
         <f>IF(Лист1!H47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E46">
         <f>IF(Лист1!I47="за",Лист1!$D47,0)</f>
@@ -7892,11 +8795,11 @@
       </c>
       <c r="F46">
         <f>IF(Лист1!J47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G46">
         <f>IF(Лист1!K47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H46">
         <f>IF(Лист1!L47="за",Лист1!$D47,0)</f>
@@ -7912,11 +8815,11 @@
       </c>
       <c r="K46">
         <f>IF(Лист1!O47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L46">
         <f>IF(Лист1!P47="за",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -8472,51 +9375,51 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(A1:A57)</f>
-        <v>17.89</v>
+        <v>45.78</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:L58" si="0">SUM(B1:B57)</f>
-        <v>19.89</v>
+        <v>44.58</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>17.89</v>
+        <v>45.78</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>47.78</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>17.89</v>
+        <v>43.75</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>17.89</v>
+        <v>45.78</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>47.78</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>15.870000000000001</v>
+        <v>27.48</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>15.870000000000001</v>
+        <v>27.48</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>15.870000000000001</v>
+        <v>29.63</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>19.89</v>
+        <v>49.929999999999993</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>15.870000000000001</v>
+        <v>43.760000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -8524,7 +9427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
@@ -8665,15 +9568,15 @@
       </c>
       <c r="H3">
         <f>IF(Лист1!L4="против",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f>IF(Лист1!M4="против",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f>IF(Лист1!N4="против",Лист1!$D4,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <f>IF(Лист1!O4="против",Лист1!$D4,0)</f>
@@ -8715,11 +9618,11 @@
       </c>
       <c r="H4">
         <f>IF(Лист1!L5="против",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="I4">
         <f>IF(Лист1!M5="против",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="J4">
         <f>IF(Лист1!N5="против",Лист1!$D5,0)</f>
@@ -8915,15 +9818,15 @@
       </c>
       <c r="H8">
         <f>IF(Лист1!L9="против",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="I8">
         <f>IF(Лист1!M9="против",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="J8">
         <f>IF(Лист1!N9="против",Лист1!$D9,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="K8">
         <f>IF(Лист1!O9="против",Лист1!$D9,0)</f>
@@ -8965,15 +9868,15 @@
       </c>
       <c r="H9">
         <f>IF(Лист1!L10="против",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="I9">
         <f>IF(Лист1!M10="против",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="J9">
         <f>IF(Лист1!N10="против",Лист1!$D10,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="K9">
         <f>IF(Лист1!O10="против",Лист1!$D10,0)</f>
@@ -9015,15 +9918,15 @@
       </c>
       <c r="H10">
         <f>IF(Лист1!L11="против",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I10">
         <f>IF(Лист1!M11="против",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
         <f>IF(Лист1!N11="против",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K10">
         <f>IF(Лист1!O11="против",Лист1!$D11,0)</f>
@@ -9065,15 +9968,15 @@
       </c>
       <c r="H11">
         <f>IF(Лист1!L12="против",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I11">
         <f>IF(Лист1!M12="против",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J11">
         <f>IF(Лист1!N12="против",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K11">
         <f>IF(Лист1!O12="против",Лист1!$D12,0)</f>
@@ -9287,7 +10190,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>IF(Лист1!E17="против",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B16">
         <f>IF(Лист1!F17="против",Лист1!$D17,0)</f>
@@ -9303,11 +10206,11 @@
       </c>
       <c r="E16">
         <f>IF(Лист1!I17="против",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F16">
         <f>IF(Лист1!J17="против",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G16">
         <f>IF(Лист1!K17="против",Лист1!$D17,0)</f>
@@ -9315,11 +10218,11 @@
       </c>
       <c r="H16">
         <f>IF(Лист1!L17="против",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I16">
         <f>IF(Лист1!M17="против",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J16">
         <f>IF(Лист1!N17="против",Лист1!$D17,0)</f>
@@ -9337,7 +10240,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>IF(Лист1!E18="против",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B17">
         <f>IF(Лист1!F18="против",Лист1!$D18,0)</f>
@@ -9353,11 +10256,11 @@
       </c>
       <c r="E17">
         <f>IF(Лист1!I18="против",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F17">
         <f>IF(Лист1!J18="против",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G17">
         <f>IF(Лист1!K18="против",Лист1!$D18,0)</f>
@@ -9365,11 +10268,11 @@
       </c>
       <c r="H17">
         <f>IF(Лист1!L18="против",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I17">
         <f>IF(Лист1!M18="против",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J17">
         <f>IF(Лист1!N18="против",Лист1!$D18,0)</f>
@@ -9387,7 +10290,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>IF(Лист1!E19="против",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B18">
         <f>IF(Лист1!F19="против",Лист1!$D19,0)</f>
@@ -9403,11 +10306,11 @@
       </c>
       <c r="E18">
         <f>IF(Лист1!I19="против",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F18">
         <f>IF(Лист1!J19="против",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G18">
         <f>IF(Лист1!K19="против",Лист1!$D19,0)</f>
@@ -9415,11 +10318,11 @@
       </c>
       <c r="H18">
         <f>IF(Лист1!L19="против",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I18">
         <f>IF(Лист1!M19="против",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J18">
         <f>IF(Лист1!N19="против",Лист1!$D19,0)</f>
@@ -9437,7 +10340,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>IF(Лист1!E20="против",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B19">
         <f>IF(Лист1!F20="против",Лист1!$D20,0)</f>
@@ -9453,11 +10356,11 @@
       </c>
       <c r="E19">
         <f>IF(Лист1!I20="против",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F19">
         <f>IF(Лист1!J20="против",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G19">
         <f>IF(Лист1!K20="против",Лист1!$D20,0)</f>
@@ -9465,11 +10368,11 @@
       </c>
       <c r="H19">
         <f>IF(Лист1!L20="против",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I19">
         <f>IF(Лист1!M20="против",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J19">
         <f>IF(Лист1!N20="против",Лист1!$D20,0)</f>
@@ -9487,7 +10390,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>IF(Лист1!E21="против",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B20">
         <f>IF(Лист1!F21="против",Лист1!$D21,0)</f>
@@ -9503,11 +10406,11 @@
       </c>
       <c r="E20">
         <f>IF(Лист1!I21="против",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F20">
         <f>IF(Лист1!J21="против",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G20">
         <f>IF(Лист1!K21="против",Лист1!$D21,0)</f>
@@ -9515,11 +10418,11 @@
       </c>
       <c r="H20">
         <f>IF(Лист1!L21="против",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I20">
         <f>IF(Лист1!M21="против",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J20">
         <f>IF(Лист1!N21="против",Лист1!$D21,0)</f>
@@ -9865,15 +10768,15 @@
       </c>
       <c r="H27">
         <f>IF(Лист1!L28="против",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="I27">
         <f>IF(Лист1!M28="против",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="J27">
         <f>IF(Лист1!N28="против",Лист1!$D28,0)</f>
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="K27">
         <f>IF(Лист1!O28="против",Лист1!$D28,0)</f>
@@ -10815,15 +11718,15 @@
       </c>
       <c r="H46">
         <f>IF(Лист1!L47="против",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I46">
         <f>IF(Лист1!M47="против",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J46">
         <f>IF(Лист1!N47="против",Лист1!$D47,0)</f>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K46">
         <f>IF(Лист1!O47="против",Лист1!$D47,0)</f>
@@ -11387,7 +12290,7 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(A1:A57)</f>
-        <v>2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:L58" si="0">SUM(B1:B57)</f>
@@ -11403,11 +12306,11 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
@@ -11415,15 +12318,15 @@
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>20.300000000000004</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>20.300000000000004</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>16.11</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -11439,7 +12342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
@@ -11641,7 +12544,7 @@
       </c>
       <c r="J4">
         <f>IF(Лист1!N5="воздержался",Лист1!$D5,0)</f>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="K4">
         <f>IF(Лист1!O5="воздержался",Лист1!$D5,0)</f>
@@ -11779,15 +12682,15 @@
       </c>
       <c r="G7">
         <f>IF(Лист1!K8="воздержался",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H7">
         <f>IF(Лист1!L8="воздержался",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I7">
         <f>IF(Лист1!M8="воздержался",Лист1!$D8,0)</f>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J7">
         <f>IF(Лист1!N8="воздержался",Лист1!$D8,0)</f>
@@ -11909,7 +12812,7 @@
       </c>
       <c r="B10">
         <f>IF(Лист1!F11="воздержался",Лист1!$D11,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C10">
         <f>IF(Лист1!G11="воздержался",Лист1!$D11,0)</f>
@@ -11959,7 +12862,7 @@
       </c>
       <c r="B11">
         <f>IF(Лист1!F12="воздержался",Лист1!$D12,0)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C11">
         <f>IF(Лист1!G12="воздержался",Лист1!$D12,0)</f>
@@ -12209,15 +13112,15 @@
       </c>
       <c r="B16">
         <f>IF(Лист1!F17="воздержался",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C16">
         <f>IF(Лист1!G17="воздержался",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D16">
         <f>IF(Лист1!H17="воздержался",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E16">
         <f>IF(Лист1!I17="воздержался",Лист1!$D17,0)</f>
@@ -12241,7 +13144,7 @@
       </c>
       <c r="J16">
         <f>IF(Лист1!N17="воздержался",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K16">
         <f>IF(Лист1!O17="воздержался",Лист1!$D17,0)</f>
@@ -12249,7 +13152,7 @@
       </c>
       <c r="L16">
         <f>IF(Лист1!P17="воздержался",Лист1!$D17,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -12259,15 +13162,15 @@
       </c>
       <c r="B17">
         <f>IF(Лист1!F18="воздержался",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C17">
         <f>IF(Лист1!G18="воздержался",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D17">
         <f>IF(Лист1!H18="воздержался",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E17">
         <f>IF(Лист1!I18="воздержался",Лист1!$D18,0)</f>
@@ -12291,7 +13194,7 @@
       </c>
       <c r="J17">
         <f>IF(Лист1!N18="воздержался",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K17">
         <f>IF(Лист1!O18="воздержался",Лист1!$D18,0)</f>
@@ -12299,7 +13202,7 @@
       </c>
       <c r="L17">
         <f>IF(Лист1!P18="воздержался",Лист1!$D18,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -12309,15 +13212,15 @@
       </c>
       <c r="B18">
         <f>IF(Лист1!F19="воздержался",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C18">
         <f>IF(Лист1!G19="воздержался",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D18">
         <f>IF(Лист1!H19="воздержался",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E18">
         <f>IF(Лист1!I19="воздержался",Лист1!$D19,0)</f>
@@ -12341,7 +13244,7 @@
       </c>
       <c r="J18">
         <f>IF(Лист1!N19="воздержался",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K18">
         <f>IF(Лист1!O19="воздержался",Лист1!$D19,0)</f>
@@ -12349,7 +13252,7 @@
       </c>
       <c r="L18">
         <f>IF(Лист1!P19="воздержался",Лист1!$D19,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -12359,15 +13262,15 @@
       </c>
       <c r="B19">
         <f>IF(Лист1!F20="воздержался",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C19">
         <f>IF(Лист1!G20="воздержался",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D19">
         <f>IF(Лист1!H20="воздержался",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E19">
         <f>IF(Лист1!I20="воздержался",Лист1!$D20,0)</f>
@@ -12391,7 +13294,7 @@
       </c>
       <c r="J19">
         <f>IF(Лист1!N20="воздержался",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K19">
         <f>IF(Лист1!O20="воздержался",Лист1!$D20,0)</f>
@@ -12399,7 +13302,7 @@
       </c>
       <c r="L19">
         <f>IF(Лист1!P20="воздержался",Лист1!$D20,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -12409,15 +13312,15 @@
       </c>
       <c r="B20">
         <f>IF(Лист1!F21="воздержался",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C20">
         <f>IF(Лист1!G21="воздержался",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D20">
         <f>IF(Лист1!H21="воздержался",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E20">
         <f>IF(Лист1!I21="воздержался",Лист1!$D21,0)</f>
@@ -12441,7 +13344,7 @@
       </c>
       <c r="J20">
         <f>IF(Лист1!N21="воздержался",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K20">
         <f>IF(Лист1!O21="воздержался",Лист1!$D21,0)</f>
@@ -12449,7 +13352,7 @@
       </c>
       <c r="L20">
         <f>IF(Лист1!P21="воздержался",Лист1!$D21,0)</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -14309,15 +15212,15 @@
       </c>
       <c r="B58">
         <f t="shared" ref="B58:L58" si="0">SUM(B1:B57)</f>
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -14329,19 +15232,19 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -14349,7 +15252,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>2.02</v>
+        <v>4.17</v>
       </c>
     </row>
   </sheetData>

--- a/результаты.xlsx
+++ b/результаты.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="86">
   <si>
     <t>Музалевская Вера Геннадьевна</t>
   </si>
@@ -276,6 +276,18 @@
   <si>
     <t>Столбец1</t>
   </si>
+  <si>
+    <t>Количество голосов (кв.м)</t>
+  </si>
+  <si>
+    <t>За (кв.м)</t>
+  </si>
+  <si>
+    <t>Против (кв.м)</t>
+  </si>
+  <si>
+    <t>Воздержался (кв.м)</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +390,207 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -751,86 +963,6 @@
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -845,27 +977,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:P58" headerRowDxfId="19" totalsRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:P58" headerRowDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:P58"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="ФИО" totalsRowLabel="Итог" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" name="КВ" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="13"/>
-    <tableColumn id="4" name="кол-во голосов" dataDxfId="12">
+    <tableColumn id="1" name="ФИО" totalsRowLabel="Итог" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" name="КВ" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="33"/>
+    <tableColumn id="4" name="кол-во голосов" dataDxfId="32">
       <calculatedColumnFormula>C3/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="вопрос 1" dataDxfId="11"/>
-    <tableColumn id="6" name="вопрос 2" dataDxfId="10"/>
-    <tableColumn id="7" name="вопрос 3" dataDxfId="9"/>
-    <tableColumn id="8" name="вопрос 4" dataDxfId="8"/>
-    <tableColumn id="9" name="вопрос 5" dataDxfId="7"/>
-    <tableColumn id="10" name="вопрос 6" dataDxfId="6"/>
-    <tableColumn id="11" name="вопрос 7" dataDxfId="5"/>
-    <tableColumn id="12" name="вопрос 8" dataDxfId="4"/>
-    <tableColumn id="13" name="вопрос 9" dataDxfId="3"/>
-    <tableColumn id="14" name="вопрос 10" dataDxfId="2"/>
-    <tableColumn id="15" name="вопрос 11" dataDxfId="1"/>
-    <tableColumn id="16" name="вопрос 12" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="5" name="вопрос 1" dataDxfId="31"/>
+    <tableColumn id="6" name="вопрос 2" dataDxfId="30"/>
+    <tableColumn id="7" name="вопрос 3" dataDxfId="29"/>
+    <tableColumn id="8" name="вопрос 4" dataDxfId="28"/>
+    <tableColumn id="9" name="вопрос 5" dataDxfId="27"/>
+    <tableColumn id="10" name="вопрос 6" dataDxfId="26"/>
+    <tableColumn id="11" name="вопрос 7" dataDxfId="25"/>
+    <tableColumn id="12" name="вопрос 8" dataDxfId="24"/>
+    <tableColumn id="13" name="вопрос 9" dataDxfId="23"/>
+    <tableColumn id="14" name="вопрос 10" dataDxfId="22"/>
+    <tableColumn id="15" name="вопрос 11" dataDxfId="21"/>
+    <tableColumn id="16" name="вопрос 12" totalsRowFunction="count" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1134,15 +1266,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="25" zoomScaleNormal="55" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="7" bestFit="1" customWidth="1"/>
@@ -1205,7 +1337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1351,44 @@
         <f>C2/100</f>
         <v>1.63</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1234,8 +1402,44 @@
         <f t="shared" ref="D3:D58" si="0">C3/100</f>
         <v>1.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1351,8 +1555,44 @@
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1366,8 +1606,44 @@
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1745,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1964,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1739,7 +2015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1790,7 +2066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +2117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -1892,7 +2168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1943,7 +2219,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +2270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2060,7 +2336,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2075,7 +2351,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2126,7 +2402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -2141,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2432,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2171,7 +2447,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -2222,7 +2498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -2273,7 +2549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2615,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -2354,7 +2630,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2645,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2675,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
@@ -2429,7 +2705,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
@@ -2480,7 +2756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -2531,7 +2807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2822,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
@@ -2561,7 +2837,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2852,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
@@ -2627,7 +2903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -2678,7 +2954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
@@ -2729,7 +3005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -2743,8 +3019,44 @@
         <f t="shared" si="0"/>
         <v>2.93</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>79</v>
       </c>
@@ -2795,7 +3107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -2810,7 +3122,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -2861,7 +3173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -2912,7 +3224,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -2927,7 +3239,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -2978,7 +3290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -3029,7 +3341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -3059,7 +3371,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -3073,8 +3385,44 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -3089,7 +3437,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
@@ -3146,51 +3494,51 @@
       </c>
       <c r="E59" s="7">
         <f>'наличие голоса'!A58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="F59" s="7">
         <f>'наличие голоса'!B58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="G59" s="7">
         <f>'наличие голоса'!C58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="H59" s="7">
         <f>'наличие голоса'!D58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="I59" s="7">
         <f>'наличие голоса'!E58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="J59" s="7">
         <f>'наличие голоса'!F58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="K59" s="7">
         <f>'наличие голоса'!G58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="L59" s="7">
         <f>'наличие голоса'!H58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="M59" s="7">
         <f>'наличие голоса'!I58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="N59" s="7">
         <f>'наличие голоса'!J58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="O59" s="7">
         <f>'наличие голоса'!K58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="P59" s="7">
         <f>'наличие голоса'!L58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3199,51 +3547,51 @@
       </c>
       <c r="E60" s="7">
         <f>за!A58</f>
-        <v>45.78</v>
+        <v>56.99</v>
       </c>
       <c r="F60" s="7">
         <f>за!B58</f>
-        <v>44.58</v>
+        <v>55.789999999999992</v>
       </c>
       <c r="G60" s="7">
         <f>за!C58</f>
-        <v>45.78</v>
+        <v>53.97</v>
       </c>
       <c r="H60" s="7">
         <f>за!D58</f>
-        <v>47.78</v>
+        <v>55.969999999999992</v>
       </c>
       <c r="I60" s="7">
         <f>за!E58</f>
-        <v>43.75</v>
+        <v>48.68</v>
       </c>
       <c r="J60" s="7">
         <f>за!F58</f>
-        <v>45.78</v>
+        <v>53.97</v>
       </c>
       <c r="K60" s="7">
         <f>за!G58</f>
-        <v>47.78</v>
+        <v>58.99</v>
       </c>
       <c r="L60" s="7">
         <f>за!H58</f>
-        <v>27.48</v>
+        <v>30.41</v>
       </c>
       <c r="M60" s="7">
         <f>за!I58</f>
-        <v>27.48</v>
+        <v>30.41</v>
       </c>
       <c r="N60" s="7">
         <f>за!J58</f>
-        <v>29.63</v>
+        <v>32.559999999999995</v>
       </c>
       <c r="O60" s="7">
         <f>за!K58</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="P60" s="7">
         <f>за!L58</f>
-        <v>43.760000000000005</v>
+        <v>49.71</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3280,11 +3628,11 @@
       </c>
       <c r="L61" s="7">
         <f>против!H58</f>
-        <v>20.300000000000004</v>
+        <v>28.580000000000002</v>
       </c>
       <c r="M61" s="7">
         <f>против!I58</f>
-        <v>20.300000000000004</v>
+        <v>25.560000000000002</v>
       </c>
       <c r="N61" s="7">
         <f>против!J58</f>
@@ -3296,7 +3644,7 @@
       </c>
       <c r="P61" s="7">
         <f>против!L58</f>
-        <v>2</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3313,19 +3661,19 @@
       </c>
       <c r="G62" s="7">
         <f>воздержался!C58</f>
-        <v>2.15</v>
+        <v>5.17</v>
       </c>
       <c r="H62" s="7">
         <f>воздержался!D58</f>
-        <v>2.15</v>
+        <v>5.17</v>
       </c>
       <c r="I62" s="7">
         <f>воздержался!E58</f>
-        <v>0</v>
+        <v>6.2799999999999994</v>
       </c>
       <c r="J62" s="7">
         <f>воздержался!F58</f>
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="K62" s="7">
         <f>воздержался!G58</f>
@@ -3337,11 +3685,11 @@
       </c>
       <c r="M62" s="7">
         <f>воздержался!I58</f>
-        <v>2.15</v>
+        <v>5.17</v>
       </c>
       <c r="N62" s="7">
         <f>воздержался!J58</f>
-        <v>4.1900000000000004</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="O62" s="7">
         <f>воздержался!K58</f>
@@ -3349,7 +3697,7 @@
       </c>
       <c r="P62" s="7">
         <f>воздержался!L58</f>
-        <v>4.17</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3358,43 +3706,43 @@
       </c>
       <c r="E63" s="11">
         <f>E60/E$59</f>
-        <v>0.91688363709192888</v>
+        <v>0.93212299640170093</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" ref="F63:P63" si="1">F60/F$59</f>
-        <v>0.89284998998598042</v>
+        <v>0.91249591102387939</v>
       </c>
       <c r="G63" s="11">
         <f t="shared" si="1"/>
-        <v>0.91688363709192888</v>
+        <v>0.88272816486751704</v>
       </c>
       <c r="H63" s="11">
         <f t="shared" si="1"/>
-        <v>0.95693971560184277</v>
+        <v>0.91543997383055253</v>
       </c>
       <c r="I63" s="11">
         <f t="shared" si="1"/>
-        <v>0.8762267174043662</v>
+        <v>0.79620543016028777</v>
       </c>
       <c r="J63" s="11">
         <f t="shared" si="1"/>
-        <v>0.91688363709192888</v>
+        <v>0.88272816486751704</v>
       </c>
       <c r="K63" s="11">
         <f t="shared" si="1"/>
-        <v>0.95693971560184277</v>
+        <v>0.96483480536473654</v>
       </c>
       <c r="L63" s="11">
         <f t="shared" si="1"/>
-        <v>0.55037051872621678</v>
+        <v>0.49738305528295707</v>
       </c>
       <c r="M63" s="11">
         <f t="shared" si="1"/>
-        <v>0.55037051872621678</v>
+        <v>0.49738305528295707</v>
       </c>
       <c r="N63" s="11">
         <f t="shared" si="1"/>
-        <v>0.59343080312437424</v>
+        <v>0.53254824991822036</v>
       </c>
       <c r="O63" s="11">
         <f t="shared" si="1"/>
@@ -3402,16 +3750,16 @@
       </c>
       <c r="P63" s="11">
         <f t="shared" si="1"/>
-        <v>0.87642699779691591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.81305201177625119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" ref="E64:P64" si="2">E61/E$59</f>
-        <v>8.3116362908071326E-2</v>
+        <v>6.7877003598298985E-2</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
@@ -3419,7 +3767,7 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="2"/>
-        <v>4.0056078509913884E-2</v>
+        <v>3.2711808963035653E-2</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="2"/>
@@ -3427,11 +3775,11 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="2"/>
-        <v>8.3116362908071326E-2</v>
+        <v>6.7877003598298985E-2</v>
       </c>
       <c r="J64" s="11">
         <f t="shared" si="2"/>
-        <v>8.3116362908071326E-2</v>
+        <v>6.7877003598298985E-2</v>
       </c>
       <c r="K64" s="11">
         <f t="shared" si="2"/>
@@ -3439,15 +3787,15 @@
       </c>
       <c r="L64" s="11">
         <f t="shared" si="2"/>
-        <v>0.40656919687562604</v>
+        <v>0.46745175008177947</v>
       </c>
       <c r="M64" s="11">
         <f t="shared" si="2"/>
-        <v>0.40656919687562604</v>
+        <v>0.41805691854759569</v>
       </c>
       <c r="N64" s="11">
         <f t="shared" si="2"/>
-        <v>0.32265171239735635</v>
+        <v>0.26349362119725217</v>
       </c>
       <c r="O64" s="11">
         <f t="shared" si="2"/>
@@ -3455,10 +3803,10 @@
       </c>
       <c r="P64" s="11">
         <f t="shared" si="2"/>
-        <v>4.0056078509913884E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8.603205757278376E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>77</v>
       </c>
@@ -3468,39 +3816,39 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="3"/>
-        <v>0.10715001001401964</v>
+        <v>8.7504088976120359E-2</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="3"/>
-        <v>4.3060284398157428E-2</v>
+        <v>8.4560026169447161E-2</v>
       </c>
       <c r="H65" s="11">
         <f t="shared" si="3"/>
-        <v>4.3060284398157428E-2</v>
+        <v>8.4560026169447161E-2</v>
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10271508014393194</v>
       </c>
       <c r="J65" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9394831534183836E-2</v>
       </c>
       <c r="K65" s="11">
         <f t="shared" si="3"/>
-        <v>4.3060284398157428E-2</v>
+        <v>3.5165194635263325E-2</v>
       </c>
       <c r="L65" s="11">
         <f t="shared" si="3"/>
-        <v>4.3060284398157428E-2</v>
+        <v>3.5165194635263325E-2</v>
       </c>
       <c r="M65" s="11">
         <f t="shared" si="3"/>
-        <v>4.3060284398157428E-2</v>
+        <v>8.4560026169447161E-2</v>
       </c>
       <c r="N65" s="11">
         <f t="shared" si="3"/>
-        <v>8.3917484478269591E-2</v>
+        <v>0.20395812888452727</v>
       </c>
       <c r="O65" s="11">
         <f t="shared" si="3"/>
@@ -3508,39 +3856,251 @@
       </c>
       <c r="P65" s="11">
         <f t="shared" si="3"/>
-        <v>8.3516923693170445E-2</v>
+        <v>0.10091593065096499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="7">
+        <f>ROUND(E59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="F66" s="7">
+        <f>ROUND(F59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="G66" s="7">
+        <f>ROUND(G59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="H66" s="7">
+        <f>ROUND(H59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="I66" s="7">
+        <f>ROUND(I59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="J66" s="7">
+        <f>ROUND(J59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="K66" s="7">
+        <f>ROUND(K59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="L66" s="7">
+        <f>ROUND(L59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="M66" s="7">
+        <f>ROUND(M59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="N66" s="7">
+        <f>ROUND(N59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="O66" s="7">
+        <f>ROUND(O59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="P66" s="7">
+        <f>ROUND(P59*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="7">
+        <f>ROUND(E60*1741.1/100,2)</f>
+        <v>992.25</v>
+      </c>
+      <c r="F67" s="7">
+        <f>ROUND(F60*1741.1/100,2)</f>
+        <v>971.36</v>
+      </c>
+      <c r="G67" s="7">
+        <f>ROUND(G60*1741.1/100,2)</f>
+        <v>939.67</v>
+      </c>
+      <c r="H67" s="7">
+        <f>ROUND(H60*1741.1/100,2)</f>
+        <v>974.49</v>
+      </c>
+      <c r="I67" s="7">
+        <f>ROUND(I60*1741.1/100,2)</f>
+        <v>847.57</v>
+      </c>
+      <c r="J67" s="7">
+        <f>ROUND(J60*1741.1/100,2)</f>
+        <v>939.67</v>
+      </c>
+      <c r="K67" s="7">
+        <f>ROUND(K60*1741.1/100,2)</f>
+        <v>1027.07</v>
+      </c>
+      <c r="L67" s="7">
+        <f>ROUND(L60*1741.1/100,2)</f>
+        <v>529.47</v>
+      </c>
+      <c r="M67" s="7">
+        <f>ROUND(M60*1741.1/100,2)</f>
+        <v>529.47</v>
+      </c>
+      <c r="N67" s="7">
+        <f>ROUND(N60*1741.1/100,2)</f>
+        <v>566.9</v>
+      </c>
+      <c r="O67" s="7">
+        <f>ROUND(O60*1741.1/100,2)</f>
+        <v>1064.51</v>
+      </c>
+      <c r="P67" s="7">
+        <f>ROUND(P60*1741.1/100,2)</f>
+        <v>865.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="7">
+        <f>ROUND(E61*1741.1/100,2)</f>
+        <v>72.260000000000005</v>
+      </c>
+      <c r="F68" s="7">
+        <f>ROUND(F61*1741.1/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <f>ROUND(G61*1741.1/100,2)</f>
+        <v>34.82</v>
+      </c>
+      <c r="H68" s="7">
+        <f>ROUND(H61*1741.1/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <f>ROUND(I61*1741.1/100,2)</f>
+        <v>72.260000000000005</v>
+      </c>
+      <c r="J68" s="7">
+        <f>ROUND(J61*1741.1/100,2)</f>
+        <v>72.260000000000005</v>
+      </c>
+      <c r="K68" s="7">
+        <f>ROUND(K61*1741.1/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
+        <f>ROUND(L61*1741.1/100,2)</f>
+        <v>497.61</v>
+      </c>
+      <c r="M68" s="7">
+        <f>ROUND(M61*1741.1/100,2)</f>
+        <v>445.03</v>
+      </c>
+      <c r="N68" s="7">
+        <f>ROUND(N61*1741.1/100,2)</f>
+        <v>280.49</v>
+      </c>
+      <c r="O68" s="7">
+        <f>ROUND(O61*1741.1/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <f>ROUND(P61*1741.1/100,2)</f>
+        <v>91.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="7">
+        <f>ROUND(E62*1741.1/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <f>ROUND(F62*1741.1/100,2)</f>
+        <v>93.15</v>
+      </c>
+      <c r="G69" s="7">
+        <f>ROUND(G62*1741.1/100,2)</f>
+        <v>90.01</v>
+      </c>
+      <c r="H69" s="7">
+        <f>ROUND(H62*1741.1/100,2)</f>
+        <v>90.01</v>
+      </c>
+      <c r="I69" s="7">
+        <f>ROUND(I62*1741.1/100,2)</f>
+        <v>109.34</v>
+      </c>
+      <c r="J69" s="7">
+        <f>ROUND(J62*1741.1/100,2)</f>
+        <v>52.58</v>
+      </c>
+      <c r="K69" s="7">
+        <f>ROUND(K62*1741.1/100,2)</f>
+        <v>37.43</v>
+      </c>
+      <c r="L69" s="7">
+        <f>ROUND(L62*1741.1/100,2)</f>
+        <v>37.43</v>
+      </c>
+      <c r="M69" s="7">
+        <f>ROUND(M62*1741.1/100,2)</f>
+        <v>90.01</v>
+      </c>
+      <c r="N69" s="7">
+        <f>ROUND(N62*1741.1/100,2)</f>
+        <v>217.12</v>
+      </c>
+      <c r="O69" s="7">
+        <f>ROUND(O62*1741.1/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <f>ROUND(P62*1741.1/100,2)</f>
+        <v>107.43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:P58">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="воздержался">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="воздержался">
       <formula>NOT(ISERROR(SEARCH("воздержался",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="за">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="за">
       <formula>NOT(ISERROR(SEARCH("за",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="против">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="против">
       <formula>NOT(ISERROR(SEARCH("против",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:P59">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:P63">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:P64">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3599,10 +4159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:L58"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,101 +4170,101 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(NOT(ISBLANK(Лист1!E2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="B1">
         <f>IF(NOT(ISBLANK(Лист1!F2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="C1">
         <f>IF(NOT(ISBLANK(Лист1!G2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="D1">
         <f>IF(NOT(ISBLANK(Лист1!H2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="E1">
         <f>IF(NOT(ISBLANK(Лист1!I2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="F1">
         <f>IF(NOT(ISBLANK(Лист1!J2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="G1">
         <f>IF(NOT(ISBLANK(Лист1!K2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="H1">
         <f>IF(NOT(ISBLANK(Лист1!L2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I1">
         <f>IF(NOT(ISBLANK(Лист1!M2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="J1">
         <f>IF(NOT(ISBLANK(Лист1!N2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="K1">
         <f>IF(NOT(ISBLANK(Лист1!O2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="L1">
         <f>IF(NOT(ISBLANK(Лист1!P2)),Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>IF(NOT(ISBLANK(Лист1!E3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="B2">
         <f>IF(NOT(ISBLANK(Лист1!F3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="C2">
         <f>IF(NOT(ISBLANK(Лист1!G3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="D2">
         <f>IF(NOT(ISBLANK(Лист1!H3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="E2">
         <f>IF(NOT(ISBLANK(Лист1!I3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="F2">
         <f>IF(NOT(ISBLANK(Лист1!J3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="G2">
         <f>IF(NOT(ISBLANK(Лист1!K3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="H2">
         <f>IF(NOT(ISBLANK(Лист1!L3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I2">
         <f>IF(NOT(ISBLANK(Лист1!M3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="J2">
         <f>IF(NOT(ISBLANK(Лист1!N3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="K2">
         <f>IF(NOT(ISBLANK(Лист1!O3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="L2">
         <f>IF(NOT(ISBLANK(Лист1!P3)),Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,101 +4370,101 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>IF(NOT(ISBLANK(Лист1!E6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B5">
         <f>IF(NOT(ISBLANK(Лист1!F6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C5">
         <f>IF(NOT(ISBLANK(Лист1!G6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D5">
         <f>IF(NOT(ISBLANK(Лист1!H6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E5">
         <f>IF(NOT(ISBLANK(Лист1!I6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F5">
         <f>IF(NOT(ISBLANK(Лист1!J6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G5">
         <f>IF(NOT(ISBLANK(Лист1!K6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H5">
         <f>IF(NOT(ISBLANK(Лист1!L6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I5">
         <f>IF(NOT(ISBLANK(Лист1!M6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J5">
         <f>IF(NOT(ISBLANK(Лист1!N6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K5">
         <f>IF(NOT(ISBLANK(Лист1!O6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L5">
         <f>IF(NOT(ISBLANK(Лист1!P6)),Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IF(NOT(ISBLANK(Лист1!E7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B6">
         <f>IF(NOT(ISBLANK(Лист1!F7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C6">
         <f>IF(NOT(ISBLANK(Лист1!G7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D6">
         <f>IF(NOT(ISBLANK(Лист1!H7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E6">
         <f>IF(NOT(ISBLANK(Лист1!I7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F6">
         <f>IF(NOT(ISBLANK(Лист1!J7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G6">
         <f>IF(NOT(ISBLANK(Лист1!K7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H6">
         <f>IF(NOT(ISBLANK(Лист1!L7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I6">
         <f>IF(NOT(ISBLANK(Лист1!M7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J6">
         <f>IF(NOT(ISBLANK(Лист1!N7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K6">
         <f>IF(NOT(ISBLANK(Лист1!O7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L6">
         <f>IF(NOT(ISBLANK(Лист1!P7)),Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5810,51 +6370,51 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>IF(NOT(ISBLANK(Лист1!E46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="B45">
         <f>IF(NOT(ISBLANK(Лист1!F46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="C45">
         <f>IF(NOT(ISBLANK(Лист1!G46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="D45">
         <f>IF(NOT(ISBLANK(Лист1!H46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="E45">
         <f>IF(NOT(ISBLANK(Лист1!I46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="F45">
         <f>IF(NOT(ISBLANK(Лист1!J46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="G45">
         <f>IF(NOT(ISBLANK(Лист1!K46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="H45">
         <f>IF(NOT(ISBLANK(Лист1!L46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="I45">
         <f>IF(NOT(ISBLANK(Лист1!M46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="J45">
         <f>IF(NOT(ISBLANK(Лист1!N46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="K45">
         <f>IF(NOT(ISBLANK(Лист1!O46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="L45">
         <f>IF(NOT(ISBLANK(Лист1!P46)),Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -6310,51 +6870,51 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>IF(NOT(ISBLANK(Лист1!E56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <f>IF(NOT(ISBLANK(Лист1!F56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <f>IF(NOT(ISBLANK(Лист1!G56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <f>IF(NOT(ISBLANK(Лист1!H56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <f>IF(NOT(ISBLANK(Лист1!I56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <f>IF(NOT(ISBLANK(Лист1!J56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <f>IF(NOT(ISBLANK(Лист1!K56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <f>IF(NOT(ISBLANK(Лист1!L56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <f>IF(NOT(ISBLANK(Лист1!M56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <f>IF(NOT(ISBLANK(Лист1!N56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <f>IF(NOT(ISBLANK(Лист1!O56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <f>IF(NOT(ISBLANK(Лист1!P56)),Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6460,51 +7020,57 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(A1:A57)</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:L58" si="0">SUM(B1:B57)</f>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>1741.1*A58/100</f>
+        <v>1064.50854</v>
       </c>
     </row>
   </sheetData>
@@ -6525,19 +7091,19 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(Лист1!E2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="B1">
         <f>IF(Лист1!F2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="C1">
         <f>IF(Лист1!G2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="D1">
         <f>IF(Лист1!H2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="E1">
         <f>IF(Лист1!I2="за",Лист1!$D2,0)</f>
@@ -6545,11 +7111,11 @@
       </c>
       <c r="F1">
         <f>IF(Лист1!J2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="G1">
         <f>IF(Лист1!K2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="H1">
         <f>IF(Лист1!L2="за",Лист1!$D2,0)</f>
@@ -6565,7 +7131,7 @@
       </c>
       <c r="K1">
         <f>IF(Лист1!O2="за",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="L1">
         <f>IF(Лист1!P2="за",Лист1!$D2,0)</f>
@@ -6575,19 +7141,19 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>IF(Лист1!E3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="B2">
         <f>IF(Лист1!F3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="C2">
         <f>IF(Лист1!G3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="D2">
         <f>IF(Лист1!H3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="E2">
         <f>IF(Лист1!I3="за",Лист1!$D3,0)</f>
@@ -6595,11 +7161,11 @@
       </c>
       <c r="F2">
         <f>IF(Лист1!J3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="G2">
         <f>IF(Лист1!K3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="H2">
         <f>IF(Лист1!L3="за",Лист1!$D3,0)</f>
@@ -6615,7 +7181,7 @@
       </c>
       <c r="K2">
         <f>IF(Лист1!O3="за",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="L2">
         <f>IF(Лист1!P3="за",Лист1!$D3,0)</f>
@@ -6725,11 +7291,11 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>IF(Лист1!E6="за",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B5">
         <f>IF(Лист1!F6="за",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C5">
         <f>IF(Лист1!G6="за",Лист1!$D6,0)</f>
@@ -6749,7 +7315,7 @@
       </c>
       <c r="G5">
         <f>IF(Лист1!K6="за",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H5">
         <f>IF(Лист1!L6="за",Лист1!$D6,0)</f>
@@ -6765,21 +7331,21 @@
       </c>
       <c r="K5">
         <f>IF(Лист1!O6="за",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L5">
         <f>IF(Лист1!P6="за",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IF(Лист1!E7="за",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B6">
         <f>IF(Лист1!F7="за",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C6">
         <f>IF(Лист1!G7="за",Лист1!$D7,0)</f>
@@ -6799,7 +7365,7 @@
       </c>
       <c r="G6">
         <f>IF(Лист1!K7="за",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H6">
         <f>IF(Лист1!L7="за",Лист1!$D7,0)</f>
@@ -6815,11 +7381,11 @@
       </c>
       <c r="K6">
         <f>IF(Лист1!O7="за",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L6">
         <f>IF(Лист1!P7="за",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8725,51 +9291,51 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>IF(Лист1!E46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="B45">
         <f>IF(Лист1!F46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="C45">
         <f>IF(Лист1!G46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="D45">
         <f>IF(Лист1!H46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="E45">
         <f>IF(Лист1!I46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="F45">
         <f>IF(Лист1!J46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="G45">
         <f>IF(Лист1!K46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="H45">
         <f>IF(Лист1!L46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="I45">
         <f>IF(Лист1!M46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="J45">
         <f>IF(Лист1!N46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="K45">
         <f>IF(Лист1!O46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="L45">
         <f>IF(Лист1!P46="за",Лист1!$D46,0)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -9225,31 +9791,31 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>IF(Лист1!E56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <f>IF(Лист1!F56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <f>IF(Лист1!G56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <f>IF(Лист1!H56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <f>IF(Лист1!I56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <f>IF(Лист1!J56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <f>IF(Лист1!K56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <f>IF(Лист1!L56="за",Лист1!$D56,0)</f>
@@ -9265,7 +9831,7 @@
       </c>
       <c r="K55">
         <f>IF(Лист1!O56="за",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <f>IF(Лист1!P56="за",Лист1!$D56,0)</f>
@@ -9375,51 +9941,51 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SUM(A1:A57)</f>
-        <v>45.78</v>
+        <v>56.99</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58:L58" si="0">SUM(B1:B57)</f>
-        <v>44.58</v>
+        <v>55.789999999999992</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>45.78</v>
+        <v>53.97</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>47.78</v>
+        <v>55.969999999999992</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>48.68</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>45.78</v>
+        <v>53.97</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>47.78</v>
+        <v>58.99</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>27.48</v>
+        <v>30.41</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>27.48</v>
+        <v>30.41</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>29.63</v>
+        <v>32.559999999999995</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>49.929999999999993</v>
+        <v>61.140000000000008</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>43.760000000000005</v>
+        <v>49.71</v>
       </c>
     </row>
   </sheetData>
@@ -9468,11 +10034,11 @@
       </c>
       <c r="H1">
         <f>IF(Лист1!L2="против",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I1">
         <f>IF(Лист1!M2="против",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="J1">
         <f>IF(Лист1!N2="против",Лист1!$D2,0)</f>
@@ -9484,7 +10050,7 @@
       </c>
       <c r="L1">
         <f>IF(Лист1!P2="против",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9518,11 +10084,11 @@
       </c>
       <c r="H2">
         <f>IF(Лист1!L3="против",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I2">
         <f>IF(Лист1!M3="против",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="J2">
         <f>IF(Лист1!N3="против",Лист1!$D3,0)</f>
@@ -9534,7 +10100,7 @@
       </c>
       <c r="L2">
         <f>IF(Лист1!P3="против",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9668,7 +10234,7 @@
       </c>
       <c r="H5">
         <f>IF(Лист1!L6="против",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I5">
         <f>IF(Лист1!M6="против",Лист1!$D6,0)</f>
@@ -9718,7 +10284,7 @@
       </c>
       <c r="H6">
         <f>IF(Лист1!L7="против",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I6">
         <f>IF(Лист1!M7="против",Лист1!$D7,0)</f>
@@ -12168,11 +12734,11 @@
       </c>
       <c r="H55">
         <f>IF(Лист1!L56="против",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <f>IF(Лист1!M56="против",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <f>IF(Лист1!N56="против",Лист1!$D56,0)</f>
@@ -12318,11 +12884,11 @@
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>20.300000000000004</v>
+        <v>28.580000000000002</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>20.300000000000004</v>
+        <v>25.560000000000002</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
@@ -12334,7 +12900,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5.26</v>
       </c>
     </row>
   </sheetData>
@@ -12374,7 +12940,7 @@
       </c>
       <c r="E1">
         <f>IF(Лист1!I2="воздержался",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="F1">
         <f>IF(Лист1!J2="воздержался",Лист1!$D2,0)</f>
@@ -12394,7 +12960,7 @@
       </c>
       <c r="J1">
         <f>IF(Лист1!N2="воздержался",Лист1!$D2,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="K1">
         <f>IF(Лист1!O2="воздержался",Лист1!$D2,0)</f>
@@ -12424,7 +12990,7 @@
       </c>
       <c r="E2">
         <f>IF(Лист1!I3="воздержался",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="F2">
         <f>IF(Лист1!J3="воздержался",Лист1!$D3,0)</f>
@@ -12444,7 +13010,7 @@
       </c>
       <c r="J2">
         <f>IF(Лист1!N3="воздержался",Лист1!$D3,0)</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="K2">
         <f>IF(Лист1!O3="воздержался",Лист1!$D3,0)</f>
@@ -12566,19 +13132,19 @@
       </c>
       <c r="C5">
         <f>IF(Лист1!G6="воздержался",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D5">
         <f>IF(Лист1!H6="воздержался",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E5">
         <f>IF(Лист1!I6="воздержался",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F5">
         <f>IF(Лист1!J6="воздержался",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G5">
         <f>IF(Лист1!K6="воздержался",Лист1!$D6,0)</f>
@@ -12590,11 +13156,11 @@
       </c>
       <c r="I5">
         <f>IF(Лист1!M6="воздержался",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J5">
         <f>IF(Лист1!N6="воздержался",Лист1!$D6,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K5">
         <f>IF(Лист1!O6="воздержался",Лист1!$D6,0)</f>
@@ -12616,19 +13182,19 @@
       </c>
       <c r="C6">
         <f>IF(Лист1!G7="воздержался",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="D6">
         <f>IF(Лист1!H7="воздержался",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="E6">
         <f>IF(Лист1!I7="воздержался",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="F6">
         <f>IF(Лист1!J7="воздержался",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G6">
         <f>IF(Лист1!K7="воздержался",Лист1!$D7,0)</f>
@@ -12640,11 +13206,11 @@
       </c>
       <c r="I6">
         <f>IF(Лист1!M7="воздержался",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="J6">
         <f>IF(Лист1!N7="воздержался",Лист1!$D7,0)</f>
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K6">
         <f>IF(Лист1!O7="воздержался",Лист1!$D7,0)</f>
@@ -15094,7 +15660,7 @@
       </c>
       <c r="J55">
         <f>IF(Лист1!N56="воздержался",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <f>IF(Лист1!O56="воздержался",Лист1!$D56,0)</f>
@@ -15102,7 +15668,7 @@
       </c>
       <c r="L55">
         <f>IF(Лист1!P56="воздержался",Лист1!$D56,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -15216,19 +15782,19 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>5.17</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>5.17</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2799999999999994</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
@@ -15240,11 +15806,11 @@
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>5.17</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>4.1900000000000004</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -15252,7 +15818,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>4.17</v>
+        <v>6.17</v>
       </c>
     </row>
   </sheetData>

--- a/результаты.xlsx
+++ b/результаты.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Documents\GitHub\valpark18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Валентиновка\valpark18.doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="против" sheetId="3" r:id="rId5"/>
     <sheet name="воздержался" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,9 +388,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="114">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -408,6 +408,746 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -977,27 +1717,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:P58" headerRowDxfId="39" totalsRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:P58" headerRowDxfId="113" totalsRowDxfId="112">
   <autoFilter ref="A1:P58"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="ФИО" totalsRowLabel="Итог" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" name="КВ" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="33"/>
-    <tableColumn id="4" name="кол-во голосов" dataDxfId="32">
+    <tableColumn id="1" name="ФИО" totalsRowLabel="Итог" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" name="КВ" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="107"/>
+    <tableColumn id="4" name="кол-во голосов" dataDxfId="106">
       <calculatedColumnFormula>C3/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="вопрос 1" dataDxfId="31"/>
-    <tableColumn id="6" name="вопрос 2" dataDxfId="30"/>
-    <tableColumn id="7" name="вопрос 3" dataDxfId="29"/>
-    <tableColumn id="8" name="вопрос 4" dataDxfId="28"/>
-    <tableColumn id="9" name="вопрос 5" dataDxfId="27"/>
-    <tableColumn id="10" name="вопрос 6" dataDxfId="26"/>
-    <tableColumn id="11" name="вопрос 7" dataDxfId="25"/>
-    <tableColumn id="12" name="вопрос 8" dataDxfId="24"/>
-    <tableColumn id="13" name="вопрос 9" dataDxfId="23"/>
-    <tableColumn id="14" name="вопрос 10" dataDxfId="22"/>
-    <tableColumn id="15" name="вопрос 11" dataDxfId="21"/>
-    <tableColumn id="16" name="вопрос 12" totalsRowFunction="count" dataDxfId="20"/>
+    <tableColumn id="5" name="вопрос 1" dataDxfId="105"/>
+    <tableColumn id="6" name="вопрос 2" dataDxfId="104"/>
+    <tableColumn id="7" name="вопрос 3" dataDxfId="103"/>
+    <tableColumn id="8" name="вопрос 4" dataDxfId="102"/>
+    <tableColumn id="9" name="вопрос 5" dataDxfId="101"/>
+    <tableColumn id="10" name="вопрос 6" dataDxfId="100"/>
+    <tableColumn id="11" name="вопрос 7" dataDxfId="99"/>
+    <tableColumn id="12" name="вопрос 8" dataDxfId="98"/>
+    <tableColumn id="13" name="вопрос 9" dataDxfId="97"/>
+    <tableColumn id="14" name="вопрос 10" dataDxfId="96"/>
+    <tableColumn id="15" name="вопрос 11" dataDxfId="95"/>
+    <tableColumn id="16" name="вопрос 12" totalsRowFunction="count" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1268,15 +2008,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -2939,13 +3679,13 @@
         <v>69</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>69</v>
@@ -2990,13 +3730,13 @@
         <v>69</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>69</v>
@@ -3356,7 +4096,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -3575,15 +4315,15 @@
       </c>
       <c r="L60" s="7">
         <f>за!H58</f>
-        <v>30.41</v>
+        <v>25.38</v>
       </c>
       <c r="M60" s="7">
         <f>за!I58</f>
-        <v>30.41</v>
+        <v>25.38</v>
       </c>
       <c r="N60" s="7">
         <f>за!J58</f>
-        <v>32.559999999999995</v>
+        <v>27.53</v>
       </c>
       <c r="O60" s="7">
         <f>за!K58</f>
@@ -3681,15 +4421,15 @@
       </c>
       <c r="L62" s="7">
         <f>воздержался!H58</f>
-        <v>2.15</v>
+        <v>7.18</v>
       </c>
       <c r="M62" s="7">
         <f>воздержался!I58</f>
-        <v>5.17</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N62" s="7">
         <f>воздержался!J58</f>
-        <v>12.469999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="O62" s="7">
         <f>воздержался!K58</f>
@@ -3734,15 +4474,15 @@
       </c>
       <c r="L63" s="11">
         <f t="shared" si="1"/>
-        <v>0.49738305528295707</v>
+        <v>0.41511285574092238</v>
       </c>
       <c r="M63" s="11">
         <f t="shared" si="1"/>
-        <v>0.49738305528295707</v>
+        <v>0.41511285574092238</v>
       </c>
       <c r="N63" s="11">
         <f t="shared" si="1"/>
-        <v>0.53254824991822036</v>
+        <v>0.45027805037618579</v>
       </c>
       <c r="O63" s="11">
         <f t="shared" si="1"/>
@@ -3840,15 +4580,15 @@
       </c>
       <c r="L65" s="11">
         <f t="shared" si="3"/>
-        <v>3.5165194635263325E-2</v>
+        <v>0.11743539417729798</v>
       </c>
       <c r="M65" s="11">
         <f t="shared" si="3"/>
-        <v>8.4560026169447161E-2</v>
+        <v>0.16683022571148182</v>
       </c>
       <c r="N65" s="11">
         <f t="shared" si="3"/>
-        <v>0.20395812888452727</v>
+        <v>0.28622832842656193</v>
       </c>
       <c r="O65" s="11">
         <f t="shared" si="3"/>
@@ -3864,51 +4604,51 @@
         <v>82</v>
       </c>
       <c r="E66" s="7">
-        <f>ROUND(E59*1741.1/100,2)</f>
+        <f t="shared" ref="E66:P66" si="4">ROUND(E59*1741.1/100,2)</f>
         <v>1064.51</v>
       </c>
       <c r="F66" s="7">
-        <f>ROUND(F59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="G66" s="7">
-        <f>ROUND(G59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="H66" s="7">
-        <f>ROUND(H59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="I66" s="7">
-        <f>ROUND(I59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="J66" s="7">
-        <f>ROUND(J59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="K66" s="7">
-        <f>ROUND(K59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="L66" s="7">
-        <f>ROUND(L59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="M66" s="7">
-        <f>ROUND(M59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="N66" s="7">
-        <f>ROUND(N59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="O66" s="7">
-        <f>ROUND(O59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
       <c r="P66" s="7">
-        <f>ROUND(P59*1741.1/100,2)</f>
+        <f t="shared" si="4"/>
         <v>1064.51</v>
       </c>
     </row>
@@ -3917,51 +4657,51 @@
         <v>83</v>
       </c>
       <c r="E67" s="7">
-        <f>ROUND(E60*1741.1/100,2)</f>
+        <f t="shared" ref="E67:P67" si="5">ROUND(E60*1741.1/100,2)</f>
         <v>992.25</v>
       </c>
       <c r="F67" s="7">
-        <f>ROUND(F60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>971.36</v>
       </c>
       <c r="G67" s="7">
-        <f>ROUND(G60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>939.67</v>
       </c>
       <c r="H67" s="7">
-        <f>ROUND(H60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>974.49</v>
       </c>
       <c r="I67" s="7">
-        <f>ROUND(I60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>847.57</v>
       </c>
       <c r="J67" s="7">
-        <f>ROUND(J60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>939.67</v>
       </c>
       <c r="K67" s="7">
-        <f>ROUND(K60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>1027.07</v>
       </c>
       <c r="L67" s="7">
-        <f>ROUND(L60*1741.1/100,2)</f>
-        <v>529.47</v>
+        <f t="shared" si="5"/>
+        <v>441.89</v>
       </c>
       <c r="M67" s="7">
-        <f>ROUND(M60*1741.1/100,2)</f>
-        <v>529.47</v>
+        <f t="shared" si="5"/>
+        <v>441.89</v>
       </c>
       <c r="N67" s="7">
-        <f>ROUND(N60*1741.1/100,2)</f>
-        <v>566.9</v>
+        <f t="shared" si="5"/>
+        <v>479.32</v>
       </c>
       <c r="O67" s="7">
-        <f>ROUND(O60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>1064.51</v>
       </c>
       <c r="P67" s="7">
-        <f>ROUND(P60*1741.1/100,2)</f>
+        <f t="shared" si="5"/>
         <v>865.5</v>
       </c>
     </row>
@@ -3970,51 +4710,51 @@
         <v>84</v>
       </c>
       <c r="E68" s="7">
-        <f>ROUND(E61*1741.1/100,2)</f>
+        <f t="shared" ref="E68:P68" si="6">ROUND(E61*1741.1/100,2)</f>
         <v>72.260000000000005</v>
       </c>
       <c r="F68" s="7">
-        <f>ROUND(F61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G68" s="7">
-        <f>ROUND(G61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>34.82</v>
       </c>
       <c r="H68" s="7">
-        <f>ROUND(H61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <f>ROUND(I61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>72.260000000000005</v>
       </c>
       <c r="J68" s="7">
-        <f>ROUND(J61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>72.260000000000005</v>
       </c>
       <c r="K68" s="7">
-        <f>ROUND(K61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L68" s="7">
-        <f>ROUND(L61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>497.61</v>
       </c>
       <c r="M68" s="7">
-        <f>ROUND(M61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>445.03</v>
       </c>
       <c r="N68" s="7">
-        <f>ROUND(N61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>280.49</v>
       </c>
       <c r="O68" s="7">
-        <f>ROUND(O61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P68" s="7">
-        <f>ROUND(P61*1741.1/100,2)</f>
+        <f t="shared" si="6"/>
         <v>91.58</v>
       </c>
     </row>
@@ -4023,85 +4763,80 @@
         <v>85</v>
       </c>
       <c r="E69" s="7">
-        <f>ROUND(E62*1741.1/100,2)</f>
+        <f t="shared" ref="E69:P69" si="7">ROUND(E62*1741.1/100,2)</f>
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <f>ROUND(F62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>93.15</v>
       </c>
       <c r="G69" s="7">
-        <f>ROUND(G62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>90.01</v>
       </c>
       <c r="H69" s="7">
-        <f>ROUND(H62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>90.01</v>
       </c>
       <c r="I69" s="7">
-        <f>ROUND(I62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>109.34</v>
       </c>
       <c r="J69" s="7">
-        <f>ROUND(J62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>52.58</v>
       </c>
       <c r="K69" s="7">
-        <f>ROUND(K62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>37.43</v>
       </c>
       <c r="L69" s="7">
-        <f>ROUND(L62*1741.1/100,2)</f>
-        <v>37.43</v>
+        <f t="shared" si="7"/>
+        <v>125.01</v>
       </c>
       <c r="M69" s="7">
-        <f>ROUND(M62*1741.1/100,2)</f>
-        <v>90.01</v>
+        <f t="shared" si="7"/>
+        <v>177.59</v>
       </c>
       <c r="N69" s="7">
-        <f>ROUND(N62*1741.1/100,2)</f>
-        <v>217.12</v>
+        <f t="shared" si="7"/>
+        <v>304.69</v>
       </c>
       <c r="O69" s="7">
-        <f>ROUND(O62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P69" s="7">
-        <f>ROUND(P62*1741.1/100,2)</f>
+        <f t="shared" si="7"/>
         <v>107.43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:P58">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="воздержался">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="воздержался">
       <formula>NOT(ISERROR(SEARCH("воздержался",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="за">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="за">
       <formula>NOT(ISERROR(SEARCH("за",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="против">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="против">
       <formula>NOT(ISERROR(SEARCH("против",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:P59">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:P63">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>E64</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:P64">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>E64</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4129,7 +4864,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9219,15 +9954,15 @@
       </c>
       <c r="H43">
         <f>IF(Лист1!L44="за",Лист1!$D44,0)</f>
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f>IF(Лист1!M44="за",Лист1!$D44,0)</f>
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f>IF(Лист1!N44="за",Лист1!$D44,0)</f>
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f>IF(Лист1!O44="за",Лист1!$D44,0)</f>
@@ -9269,15 +10004,15 @@
       </c>
       <c r="H44">
         <f>IF(Лист1!L45="за",Лист1!$D45,0)</f>
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <f>IF(Лист1!M45="за",Лист1!$D45,0)</f>
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f>IF(Лист1!N45="за",Лист1!$D45,0)</f>
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f>IF(Лист1!O45="за",Лист1!$D45,0)</f>
@@ -9969,15 +10704,15 @@
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>30.41</v>
+        <v>25.38</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>30.41</v>
+        <v>25.38</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>32.559999999999995</v>
+        <v>27.53</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -15052,15 +15787,15 @@
       </c>
       <c r="H43">
         <f>IF(Лист1!L44="воздержался",Лист1!$D44,0)</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I43">
         <f>IF(Лист1!M44="воздержался",Лист1!$D44,0)</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J43">
         <f>IF(Лист1!N44="воздержался",Лист1!$D44,0)</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K43">
         <f>IF(Лист1!O44="воздержался",Лист1!$D44,0)</f>
@@ -15102,15 +15837,15 @@
       </c>
       <c r="H44">
         <f>IF(Лист1!L45="воздержался",Лист1!$D45,0)</f>
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I44">
         <f>IF(Лист1!M45="воздержался",Лист1!$D45,0)</f>
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="J44">
         <f>IF(Лист1!N45="воздержался",Лист1!$D45,0)</f>
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="K44">
         <f>IF(Лист1!O45="воздержался",Лист1!$D45,0)</f>
@@ -15802,15 +16537,15 @@
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.15</v>
+        <v>7.18</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>5.17</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>12.469999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
